--- a/projects/project-7-final/data/child_mortality_rural_1990_2021.xlsx
+++ b/projects/project-7-final/data/child_mortality_rural_1990_2021.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
-  <si>
-    <t>child_mortality</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+  <si>
+    <t>region</t>
   </si>
   <si>
     <t>1990</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">        Ярославская область</t>
   </si>
   <si>
-    <t xml:space="preserve">        Город Москва столица Российской Федерации город федерального значения</t>
+    <t xml:space="preserve">        Город Москва</t>
   </si>
   <si>
     <t xml:space="preserve">        Республика Карелия</t>
@@ -199,7 +199,7 @@
     <t xml:space="preserve">        Псковская область</t>
   </si>
   <si>
-    <t xml:space="preserve">        Город Санкт-Петербург город федерального значения</t>
+    <t xml:space="preserve">        Город Санкт-Петербург</t>
   </si>
   <si>
     <t xml:space="preserve">        Республика Адыгея (Адыгея)</t>
@@ -268,9 +268,6 @@
     <t xml:space="preserve">        Пермский край</t>
   </si>
   <si>
-    <t xml:space="preserve">            Коми-Пермяцкий округ, входящий в состав Пермского края</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Кировская область</t>
   </si>
   <si>
@@ -328,18 +325,9 @@
     <t xml:space="preserve">        Красноярский край</t>
   </si>
   <si>
-    <t xml:space="preserve">            Таймырский (Долгано-Ненецкий) автономный округ (Красноярский край)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Эвенкийский автономный округ (Красноярский край)</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Иркутская область</t>
   </si>
   <si>
-    <t xml:space="preserve">            Усть-Ордынский Бурятский округ</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Кемеровская область - Кузбасс</t>
   </si>
   <si>
@@ -358,16 +346,10 @@
     <t xml:space="preserve">        Забайкальский край</t>
   </si>
   <si>
-    <t xml:space="preserve">            Агинский Бурятский округ (Забайкальский край)</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Республика Саха (Якутия)</t>
   </si>
   <si>
     <t xml:space="preserve">        Камчатский край</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Корякский округ, входящий в состав Камчатского края</t>
   </si>
   <si>
     <t xml:space="preserve">        Приморский край</t>
@@ -440,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -508,73 +490,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -594,18 +516,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -767,13 +677,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -862,7 +766,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -871,10 +775,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1120,13 +1024,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1419,7 +1317,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1428,10 +1326,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1676,7 +1574,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG94"/>
+  <dimension ref="A1:AG88"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6837,175 +6735,201 @@
         <v>85</v>
       </c>
       <c r="B54" s="3">
+        <v>161</v>
+      </c>
+      <c r="C54" s="3">
+        <v>116</v>
+      </c>
+      <c r="D54" s="3">
+        <v>104</v>
+      </c>
+      <c r="E54" s="3">
+        <v>104</v>
+      </c>
+      <c r="F54" s="3">
+        <v>72</v>
+      </c>
+      <c r="G54" s="3">
+        <v>87</v>
+      </c>
+      <c r="H54" s="3">
+        <v>73</v>
+      </c>
+      <c r="I54" s="3">
+        <v>80</v>
+      </c>
+      <c r="J54" s="3">
+        <v>74</v>
+      </c>
+      <c r="K54" s="3">
+        <v>61</v>
+      </c>
+      <c r="L54" s="3">
+        <v>61</v>
+      </c>
+      <c r="M54" s="3">
+        <v>61</v>
+      </c>
+      <c r="N54" s="3">
+        <v>44</v>
+      </c>
+      <c r="O54" s="3">
+        <v>52</v>
+      </c>
+      <c r="P54" s="3">
+        <v>55</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>39</v>
+      </c>
+      <c r="R54" s="3">
+        <v>52</v>
+      </c>
+      <c r="S54" s="3">
+        <v>55</v>
+      </c>
+      <c r="T54" s="3">
+        <v>49</v>
+      </c>
+      <c r="U54" s="3">
+        <v>43</v>
+      </c>
+      <c r="V54" s="3">
+        <v>41</v>
+      </c>
+      <c r="W54" s="3">
+        <v>34</v>
+      </c>
+      <c r="X54" s="3">
+        <v>45</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>26</v>
+      </c>
+      <c r="Z54" s="3">
         <v>27</v>
       </c>
-      <c r="C54" s="3">
-        <v>30</v>
-      </c>
-      <c r="D54" s="3">
-        <v>31</v>
-      </c>
-      <c r="E54" s="3">
-        <v>32</v>
-      </c>
-      <c r="F54" s="3">
-        <v>36</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="AA54" s="3">
+        <v>23</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>23</v>
+      </c>
+      <c r="AC54" s="3">
         <v>17</v>
       </c>
-      <c r="H54" s="3">
-        <v>31</v>
-      </c>
-      <c r="I54" s="3">
-        <v>20</v>
-      </c>
-      <c r="J54" s="3">
-        <v>24</v>
-      </c>
-      <c r="K54" s="3">
-        <v>20</v>
-      </c>
-      <c r="L54" s="3">
-        <v>27</v>
-      </c>
-      <c r="M54" s="3">
-        <v>19</v>
-      </c>
-      <c r="N54" s="3">
-        <v>24</v>
-      </c>
-      <c r="O54" s="3">
-        <v>20</v>
-      </c>
-      <c r="P54" s="3">
-        <v>17</v>
-      </c>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="3">
+      <c r="AD54" s="3">
+        <v>22</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>9</v>
+      </c>
+      <c r="AF54" s="3">
+        <v>9</v>
+      </c>
+      <c r="AG54" s="3">
         <v>13</v>
       </c>
-      <c r="T54" s="3">
-        <v>16</v>
-      </c>
-      <c r="U54" s="3">
-        <v>17</v>
-      </c>
-      <c r="V54" s="3">
-        <v>27</v>
-      </c>
-      <c r="W54" s="4"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="B55" s="3">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C55" s="3">
+        <v>154</v>
+      </c>
+      <c r="D55" s="3">
+        <v>150</v>
+      </c>
+      <c r="E55" s="3">
+        <v>134</v>
+      </c>
+      <c r="F55" s="3">
+        <v>134</v>
+      </c>
+      <c r="G55" s="3">
         <v>116</v>
       </c>
-      <c r="D55" s="3">
-        <v>104</v>
-      </c>
-      <c r="E55" s="3">
-        <v>104</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="H55" s="3">
+        <v>102</v>
+      </c>
+      <c r="I55" s="3">
+        <v>117</v>
+      </c>
+      <c r="J55" s="3">
+        <v>110</v>
+      </c>
+      <c r="K55" s="3">
+        <v>87</v>
+      </c>
+      <c r="L55" s="3">
+        <v>110</v>
+      </c>
+      <c r="M55" s="3">
+        <v>99</v>
+      </c>
+      <c r="N55" s="3">
+        <v>108</v>
+      </c>
+      <c r="O55" s="3">
+        <v>105</v>
+      </c>
+      <c r="P55" s="3">
+        <v>88</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>95</v>
+      </c>
+      <c r="R55" s="3">
+        <v>82</v>
+      </c>
+      <c r="S55" s="3">
+        <v>81</v>
+      </c>
+      <c r="T55" s="3">
+        <v>75</v>
+      </c>
+      <c r="U55" s="3">
+        <v>79</v>
+      </c>
+      <c r="V55" s="3">
         <v>72</v>
       </c>
-      <c r="G55" s="3">
-        <v>87</v>
-      </c>
-      <c r="H55" s="3">
-        <v>73</v>
-      </c>
-      <c r="I55" s="3">
-        <v>80</v>
-      </c>
-      <c r="J55" s="3">
-        <v>74</v>
-      </c>
-      <c r="K55" s="3">
+      <c r="W55" s="3">
+        <v>54</v>
+      </c>
+      <c r="X55" s="3">
+        <v>63</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>84</v>
+      </c>
+      <c r="Z55" s="3">
         <v>61</v>
       </c>
-      <c r="L55" s="3">
-        <v>61</v>
-      </c>
-      <c r="M55" s="3">
-        <v>61</v>
-      </c>
-      <c r="N55" s="3">
+      <c r="AA55" s="3">
+        <v>72</v>
+      </c>
+      <c r="AB55" s="3">
         <v>44</v>
       </c>
-      <c r="O55" s="3">
-        <v>52</v>
-      </c>
-      <c r="P55" s="3">
-        <v>55</v>
-      </c>
-      <c r="Q55" s="3">
+      <c r="AC55" s="3">
+        <v>43</v>
+      </c>
+      <c r="AD55" s="3">
+        <v>47</v>
+      </c>
+      <c r="AE55" s="3">
         <v>39</v>
       </c>
-      <c r="R55" s="3">
-        <v>52</v>
-      </c>
-      <c r="S55" s="3">
-        <v>55</v>
-      </c>
-      <c r="T55" s="3">
-        <v>49</v>
-      </c>
-      <c r="U55" s="3">
-        <v>43</v>
-      </c>
-      <c r="V55" s="3">
-        <v>41</v>
-      </c>
-      <c r="W55" s="3">
-        <v>34</v>
-      </c>
-      <c r="X55" s="3">
-        <v>45</v>
-      </c>
-      <c r="Y55" s="3">
+      <c r="AF55" s="3">
         <v>26</v>
       </c>
-      <c r="Z55" s="3">
-        <v>27</v>
-      </c>
-      <c r="AA55" s="3">
-        <v>23</v>
-      </c>
-      <c r="AB55" s="3">
-        <v>23</v>
-      </c>
-      <c r="AC55" s="3">
-        <v>17</v>
-      </c>
-      <c r="AD55" s="3">
-        <v>22</v>
-      </c>
-      <c r="AE55" s="3">
-        <v>9</v>
-      </c>
-      <c r="AF55" s="3">
-        <v>9</v>
-      </c>
       <c r="AG55" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -7013,100 +6937,100 @@
         <v>87</v>
       </c>
       <c r="B56" s="3">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="C56" s="3">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="D56" s="3">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="E56" s="3">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="F56" s="3">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="G56" s="3">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="H56" s="3">
+        <v>183</v>
+      </c>
+      <c r="I56" s="3">
+        <v>175</v>
+      </c>
+      <c r="J56" s="3">
+        <v>164</v>
+      </c>
+      <c r="K56" s="3">
+        <v>146</v>
+      </c>
+      <c r="L56" s="3">
+        <v>167</v>
+      </c>
+      <c r="M56" s="3">
+        <v>141</v>
+      </c>
+      <c r="N56" s="3">
+        <v>136</v>
+      </c>
+      <c r="O56" s="3">
+        <v>141</v>
+      </c>
+      <c r="P56" s="3">
+        <v>118</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>158</v>
+      </c>
+      <c r="R56" s="3">
         <v>102</v>
       </c>
-      <c r="I56" s="3">
-        <v>117</v>
-      </c>
-      <c r="J56" s="3">
-        <v>110</v>
-      </c>
-      <c r="K56" s="3">
-        <v>87</v>
-      </c>
-      <c r="L56" s="3">
-        <v>110</v>
-      </c>
-      <c r="M56" s="3">
-        <v>99</v>
-      </c>
-      <c r="N56" s="3">
-        <v>108</v>
-      </c>
-      <c r="O56" s="3">
-        <v>105</v>
-      </c>
-      <c r="P56" s="3">
-        <v>88</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>95</v>
-      </c>
-      <c r="R56" s="3">
-        <v>82</v>
-      </c>
       <c r="S56" s="3">
+        <v>121</v>
+      </c>
+      <c r="T56" s="3">
+        <v>111</v>
+      </c>
+      <c r="U56" s="3">
+        <v>119</v>
+      </c>
+      <c r="V56" s="3">
+        <v>109</v>
+      </c>
+      <c r="W56" s="3">
+        <v>113</v>
+      </c>
+      <c r="X56" s="3">
+        <v>139</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>143</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>138</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>93</v>
+      </c>
+      <c r="AB56" s="3">
         <v>81</v>
       </c>
-      <c r="T56" s="3">
-        <v>75</v>
-      </c>
-      <c r="U56" s="3">
-        <v>79</v>
-      </c>
-      <c r="V56" s="3">
-        <v>72</v>
-      </c>
-      <c r="W56" s="3">
-        <v>54</v>
-      </c>
-      <c r="X56" s="3">
-        <v>63</v>
-      </c>
-      <c r="Y56" s="3">
-        <v>84</v>
-      </c>
-      <c r="Z56" s="3">
-        <v>61</v>
-      </c>
-      <c r="AA56" s="3">
-        <v>72</v>
-      </c>
-      <c r="AB56" s="3">
-        <v>44</v>
-      </c>
       <c r="AC56" s="3">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="AD56" s="3">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AE56" s="3">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AF56" s="3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AG56" s="3">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
@@ -7114,100 +7038,100 @@
         <v>88</v>
       </c>
       <c r="B57" s="3">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="C57" s="3">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="D57" s="3">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="E57" s="3">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="F57" s="3">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="G57" s="3">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="H57" s="3">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="I57" s="3">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="J57" s="3">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="K57" s="3">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="L57" s="3">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="M57" s="3">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="N57" s="3">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="O57" s="3">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="P57" s="3">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="Q57" s="3">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="R57" s="3">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="S57" s="3">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="T57" s="3">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="U57" s="3">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="V57" s="3">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="W57" s="3">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="X57" s="3">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="Y57" s="3">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="Z57" s="3">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="AA57" s="3">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="AB57" s="3">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC57" s="3">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="AD57" s="3">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="AE57" s="3">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="AF57" s="3">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="AG57" s="3">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
@@ -7215,100 +7139,100 @@
         <v>89</v>
       </c>
       <c r="B58" s="3">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C58" s="3">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="D58" s="3">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="E58" s="3">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>76</v>
+      </c>
+      <c r="H58" s="3">
+        <v>84</v>
+      </c>
+      <c r="I58" s="3">
+        <v>81</v>
+      </c>
+      <c r="J58" s="3">
         <v>75</v>
       </c>
-      <c r="G58" s="3">
-        <v>80</v>
-      </c>
-      <c r="H58" s="3">
-        <v>66</v>
-      </c>
-      <c r="I58" s="3">
-        <v>69</v>
-      </c>
-      <c r="J58" s="3">
-        <v>63</v>
-      </c>
       <c r="K58" s="3">
+        <v>59</v>
+      </c>
+      <c r="L58" s="3">
         <v>65</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
+        <v>52</v>
+      </c>
+      <c r="N58" s="3">
         <v>46</v>
       </c>
-      <c r="M58" s="3">
-        <v>60</v>
-      </c>
-      <c r="N58" s="3">
-        <v>58</v>
-      </c>
       <c r="O58" s="3">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="P58" s="3">
         <v>51</v>
       </c>
       <c r="Q58" s="3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R58" s="3">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="S58" s="3">
+        <v>51</v>
+      </c>
+      <c r="T58" s="3">
+        <v>66</v>
+      </c>
+      <c r="U58" s="3">
+        <v>62</v>
+      </c>
+      <c r="V58" s="3">
+        <v>54</v>
+      </c>
+      <c r="W58" s="3">
+        <v>67</v>
+      </c>
+      <c r="X58" s="3">
+        <v>69</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>72</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>69</v>
+      </c>
+      <c r="AA58" s="3">
         <v>50</v>
       </c>
-      <c r="T58" s="3">
-        <v>38</v>
-      </c>
-      <c r="U58" s="3">
-        <v>27</v>
-      </c>
-      <c r="V58" s="3">
-        <v>42</v>
-      </c>
-      <c r="W58" s="3">
-        <v>27</v>
-      </c>
-      <c r="X58" s="3">
-        <v>36</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>32</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>27</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>19</v>
-      </c>
       <c r="AB58" s="3">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="AC58" s="3">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="AD58" s="3">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="AE58" s="3">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AF58" s="3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AG58" s="3">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
@@ -7316,100 +7240,100 @@
         <v>90</v>
       </c>
       <c r="B59" s="3">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="C59" s="3">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="D59" s="3">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="E59" s="3">
+        <v>213</v>
+      </c>
+      <c r="F59" s="3">
+        <v>203</v>
+      </c>
+      <c r="G59" s="3">
+        <v>179</v>
+      </c>
+      <c r="H59" s="3">
+        <v>189</v>
+      </c>
+      <c r="I59" s="3">
+        <v>145</v>
+      </c>
+      <c r="J59" s="3">
+        <v>141</v>
+      </c>
+      <c r="K59" s="3">
+        <v>114</v>
+      </c>
+      <c r="L59" s="3">
+        <v>129</v>
+      </c>
+      <c r="M59" s="3">
         <v>107</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="N59" s="3">
+        <v>91</v>
+      </c>
+      <c r="O59" s="3">
+        <v>95</v>
+      </c>
+      <c r="P59" s="3">
         <v>76</v>
       </c>
-      <c r="H59" s="3">
-        <v>84</v>
-      </c>
-      <c r="I59" s="3">
-        <v>81</v>
-      </c>
-      <c r="J59" s="3">
-        <v>75</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="Q59" s="3">
+        <v>71</v>
+      </c>
+      <c r="R59" s="3">
+        <v>64</v>
+      </c>
+      <c r="S59" s="3">
+        <v>70</v>
+      </c>
+      <c r="T59" s="3">
+        <v>64</v>
+      </c>
+      <c r="U59" s="3">
+        <v>66</v>
+      </c>
+      <c r="V59" s="3">
+        <v>53</v>
+      </c>
+      <c r="W59" s="3">
         <v>59</v>
       </c>
-      <c r="L59" s="3">
-        <v>65</v>
-      </c>
-      <c r="M59" s="3">
-        <v>52</v>
-      </c>
-      <c r="N59" s="3">
-        <v>46</v>
-      </c>
-      <c r="O59" s="3">
-        <v>57</v>
-      </c>
-      <c r="P59" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>48</v>
-      </c>
-      <c r="R59" s="3">
-        <v>56</v>
-      </c>
-      <c r="S59" s="3">
-        <v>51</v>
-      </c>
-      <c r="T59" s="3">
-        <v>66</v>
-      </c>
-      <c r="U59" s="3">
-        <v>62</v>
-      </c>
-      <c r="V59" s="3">
-        <v>54</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>67</v>
       </c>
-      <c r="X59" s="3">
-        <v>69</v>
-      </c>
       <c r="Y59" s="3">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Z59" s="3">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AA59" s="3">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AB59" s="3">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AC59" s="3">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AD59" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AE59" s="3">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AF59" s="3">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AG59" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
@@ -7417,100 +7341,100 @@
         <v>91</v>
       </c>
       <c r="B60" s="3">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="C60" s="3">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="D60" s="3">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="E60" s="3">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="F60" s="3">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="G60" s="3">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="H60" s="3">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="I60" s="3">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="J60" s="3">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="K60" s="3">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="L60" s="3">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="M60" s="3">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="N60" s="3">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="O60" s="3">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="P60" s="3">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="Q60" s="3">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="R60" s="3">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="S60" s="3">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="T60" s="3">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="U60" s="3">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="V60" s="3">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="W60" s="3">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="X60" s="3">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="Y60" s="3">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="Z60" s="3">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="AA60" s="3">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="AB60" s="3">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="AC60" s="3">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="AD60" s="3">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AE60" s="3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AF60" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AG60" s="3">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
@@ -7518,100 +7442,100 @@
         <v>92</v>
       </c>
       <c r="B61" s="3">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="C61" s="3">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D61" s="3">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="E61" s="3">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="F61" s="3">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G61" s="3">
+        <v>123</v>
+      </c>
+      <c r="H61" s="3">
         <v>96</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
+        <v>77</v>
+      </c>
+      <c r="J61" s="3">
         <v>83</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
+        <v>89</v>
+      </c>
+      <c r="L61" s="3">
         <v>68</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
+        <v>68</v>
+      </c>
+      <c r="N61" s="3">
+        <v>66</v>
+      </c>
+      <c r="O61" s="3">
+        <v>59</v>
+      </c>
+      <c r="P61" s="3">
+        <v>75</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>65</v>
+      </c>
+      <c r="R61" s="3">
+        <v>80</v>
+      </c>
+      <c r="S61" s="3">
+        <v>69</v>
+      </c>
+      <c r="T61" s="3">
+        <v>71</v>
+      </c>
+      <c r="U61" s="3">
+        <v>57</v>
+      </c>
+      <c r="V61" s="3">
         <v>52</v>
       </c>
-      <c r="K61" s="3">
-        <v>62</v>
-      </c>
-      <c r="L61" s="3">
-        <v>56</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="W61" s="3">
+        <v>52</v>
+      </c>
+      <c r="X61" s="3">
         <v>57</v>
       </c>
-      <c r="N61" s="3">
-        <v>54</v>
-      </c>
-      <c r="O61" s="3">
-        <v>53</v>
-      </c>
-      <c r="P61" s="3">
-        <v>52</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>43</v>
-      </c>
-      <c r="R61" s="3">
+      <c r="Y61" s="3">
+        <v>48</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>49</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>34</v>
+      </c>
+      <c r="AB61" s="3">
         <v>39</v>
       </c>
-      <c r="S61" s="3">
-        <v>32</v>
-      </c>
-      <c r="T61" s="3">
-        <v>43</v>
-      </c>
-      <c r="U61" s="3">
-        <v>30</v>
-      </c>
-      <c r="V61" s="3">
-        <v>29</v>
-      </c>
-      <c r="W61" s="3">
-        <v>27</v>
-      </c>
-      <c r="X61" s="3">
-        <v>28</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>27</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>32</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>26</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>26</v>
-      </c>
       <c r="AC61" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AD61" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE61" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF61" s="3">
+        <v>15</v>
+      </c>
+      <c r="AG61" s="3">
         <v>11</v>
-      </c>
-      <c r="AG61" s="3">
-        <v>7</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
@@ -7619,100 +7543,100 @@
         <v>93</v>
       </c>
       <c r="B62" s="3">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C62" s="3">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D62" s="3">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E62" s="3">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F62" s="3">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="G62" s="3">
         <v>123</v>
       </c>
       <c r="H62" s="3">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="I62" s="3">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="J62" s="3">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L62" s="3">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M62" s="3">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="N62" s="3">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O62" s="3">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="P62" s="3">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Q62" s="3">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="R62" s="3">
         <v>80</v>
       </c>
       <c r="S62" s="3">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="T62" s="3">
+        <v>109</v>
+      </c>
+      <c r="U62" s="3">
+        <v>78</v>
+      </c>
+      <c r="V62" s="3">
+        <v>76</v>
+      </c>
+      <c r="W62" s="3">
+        <v>66</v>
+      </c>
+      <c r="X62" s="3">
+        <v>94</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>84</v>
+      </c>
+      <c r="Z62" s="3">
         <v>71</v>
       </c>
-      <c r="U62" s="3">
+      <c r="AA62" s="3">
+        <v>56</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>71</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>53</v>
+      </c>
+      <c r="AD62" s="3">
         <v>57</v>
       </c>
-      <c r="V62" s="3">
-        <v>52</v>
-      </c>
-      <c r="W62" s="3">
-        <v>52</v>
-      </c>
-      <c r="X62" s="3">
-        <v>57</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>48</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>49</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>34</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>39</v>
-      </c>
-      <c r="AC62" s="3">
-        <v>22</v>
-      </c>
-      <c r="AD62" s="3">
-        <v>21</v>
-      </c>
       <c r="AE62" s="3">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AF62" s="3">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AG62" s="3">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
@@ -7720,100 +7644,100 @@
         <v>94</v>
       </c>
       <c r="B63" s="3">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="C63" s="3">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="D63" s="3">
+        <v>217</v>
+      </c>
+      <c r="E63" s="3">
+        <v>208</v>
+      </c>
+      <c r="F63" s="3">
+        <v>176</v>
+      </c>
+      <c r="G63" s="3">
+        <v>200</v>
+      </c>
+      <c r="H63" s="3">
+        <v>147</v>
+      </c>
+      <c r="I63" s="3">
+        <v>184</v>
+      </c>
+      <c r="J63" s="3">
         <v>172</v>
       </c>
-      <c r="E63" s="3">
-        <v>179</v>
-      </c>
-      <c r="F63" s="3">
-        <v>175</v>
-      </c>
-      <c r="G63" s="3">
+      <c r="K63" s="3">
+        <v>138</v>
+      </c>
+      <c r="L63" s="3">
+        <v>140</v>
+      </c>
+      <c r="M63" s="3">
+        <v>142</v>
+      </c>
+      <c r="N63" s="3">
+        <v>145</v>
+      </c>
+      <c r="O63" s="3">
+        <v>122</v>
+      </c>
+      <c r="P63" s="3">
+        <v>142</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>112</v>
+      </c>
+      <c r="R63" s="3">
+        <v>121</v>
+      </c>
+      <c r="S63" s="3">
+        <v>121</v>
+      </c>
+      <c r="T63" s="3">
+        <v>132</v>
+      </c>
+      <c r="U63" s="3">
+        <v>120</v>
+      </c>
+      <c r="V63" s="3">
+        <v>128</v>
+      </c>
+      <c r="W63" s="3">
         <v>123</v>
       </c>
-      <c r="H63" s="3">
-        <v>146</v>
-      </c>
-      <c r="I63" s="3">
-        <v>114</v>
-      </c>
-      <c r="J63" s="3">
-        <v>100</v>
-      </c>
-      <c r="K63" s="3">
+      <c r="X63" s="3">
+        <v>123</v>
+      </c>
+      <c r="Y63" s="3">
         <v>124</v>
       </c>
-      <c r="L63" s="3">
+      <c r="Z63" s="3">
+        <v>97</v>
+      </c>
+      <c r="AA63" s="3">
         <v>94</v>
       </c>
-      <c r="M63" s="3">
-        <v>104</v>
-      </c>
-      <c r="N63" s="3">
-        <v>72</v>
-      </c>
-      <c r="O63" s="3">
-        <v>93</v>
-      </c>
-      <c r="P63" s="3">
-        <v>85</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>108</v>
-      </c>
-      <c r="R63" s="3">
-        <v>80</v>
-      </c>
-      <c r="S63" s="3">
-        <v>92</v>
-      </c>
-      <c r="T63" s="3">
-        <v>109</v>
-      </c>
-      <c r="U63" s="3">
+      <c r="AB63" s="3">
+        <v>70</v>
+      </c>
+      <c r="AC63" s="3">
         <v>78</v>
       </c>
-      <c r="V63" s="3">
-        <v>76</v>
-      </c>
-      <c r="W63" s="3">
-        <v>66</v>
-      </c>
-      <c r="X63" s="3">
-        <v>94</v>
-      </c>
-      <c r="Y63" s="3">
-        <v>84</v>
-      </c>
-      <c r="Z63" s="3">
-        <v>71</v>
-      </c>
-      <c r="AA63" s="3">
-        <v>56</v>
-      </c>
-      <c r="AB63" s="3">
-        <v>71</v>
-      </c>
-      <c r="AC63" s="3">
-        <v>53</v>
-      </c>
       <c r="AD63" s="3">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AE63" s="3">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AF63" s="3">
         <v>38</v>
       </c>
       <c r="AG63" s="3">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
@@ -7821,355 +7745,355 @@
         <v>95</v>
       </c>
       <c r="B64" s="3">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="C64" s="3">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="D64" s="3">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="E64" s="3">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="F64" s="3">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="G64" s="3">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="H64" s="3">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="I64" s="3">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="J64" s="3">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="K64" s="3">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="L64" s="3">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="M64" s="3">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="N64" s="3">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="O64" s="3">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="P64" s="3">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="Q64" s="3">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="R64" s="3">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="S64" s="3">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="T64" s="3">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="U64" s="3">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="V64" s="3">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="W64" s="3">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="X64" s="3">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="Y64" s="3">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="Z64" s="3">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="AA64" s="3">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="AB64" s="3">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="AC64" s="3">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="AD64" s="3">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="AE64" s="3">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="AF64" s="3">
-        <v>38</v>
-      </c>
-      <c r="AG64" s="3">
-        <v>42</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AG64" s="4"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" t="s" s="2">
         <v>96</v>
       </c>
       <c r="B65" s="3">
+        <v>58</v>
+      </c>
+      <c r="C65" s="3">
+        <v>48</v>
+      </c>
+      <c r="D65" s="3">
+        <v>33</v>
+      </c>
+      <c r="E65" s="3">
         <v>44</v>
       </c>
-      <c r="C65" s="3">
+      <c r="F65" s="3">
+        <v>38</v>
+      </c>
+      <c r="G65" s="3">
+        <v>42</v>
+      </c>
+      <c r="H65" s="3">
+        <v>39</v>
+      </c>
+      <c r="I65" s="3">
+        <v>45</v>
+      </c>
+      <c r="J65" s="3">
+        <v>41</v>
+      </c>
+      <c r="K65" s="3">
+        <v>33</v>
+      </c>
+      <c r="L65" s="3">
+        <v>39</v>
+      </c>
+      <c r="M65" s="3">
+        <v>42</v>
+      </c>
+      <c r="N65" s="3">
+        <v>43</v>
+      </c>
+      <c r="O65" s="3">
+        <v>36</v>
+      </c>
+      <c r="P65" s="3">
         <v>44</v>
       </c>
-      <c r="D65" s="3">
+      <c r="Q65" s="3">
+        <v>31</v>
+      </c>
+      <c r="R65" s="3">
+        <v>45</v>
+      </c>
+      <c r="S65" s="3">
+        <v>39</v>
+      </c>
+      <c r="T65" s="3">
+        <v>44</v>
+      </c>
+      <c r="U65" s="3">
+        <v>47</v>
+      </c>
+      <c r="V65" s="3">
+        <v>58</v>
+      </c>
+      <c r="W65" s="3">
+        <v>46</v>
+      </c>
+      <c r="X65" s="3">
+        <v>35</v>
+      </c>
+      <c r="Y65" s="3">
         <v>40</v>
       </c>
-      <c r="E65" s="3">
-        <v>46</v>
-      </c>
-      <c r="F65" s="3">
+      <c r="Z65" s="3">
         <v>25</v>
       </c>
-      <c r="G65" s="3">
-        <v>47</v>
-      </c>
-      <c r="H65" s="3">
-        <v>31</v>
-      </c>
-      <c r="I65" s="3">
-        <v>34</v>
-      </c>
-      <c r="J65" s="3">
-        <v>33</v>
-      </c>
-      <c r="K65" s="3">
-        <v>20</v>
-      </c>
-      <c r="L65" s="3">
-        <v>18</v>
-      </c>
-      <c r="M65" s="3">
-        <v>18</v>
-      </c>
-      <c r="N65" s="3">
-        <v>19</v>
-      </c>
-      <c r="O65" s="3">
-        <v>15</v>
-      </c>
-      <c r="P65" s="3">
+      <c r="AA65" s="3">
         <v>22</v>
       </c>
-      <c r="Q65" s="3">
-        <v>14</v>
-      </c>
-      <c r="R65" s="3">
-        <v>18</v>
-      </c>
-      <c r="S65" s="3">
-        <v>21</v>
-      </c>
-      <c r="T65" s="3">
-        <v>19</v>
-      </c>
-      <c r="U65" s="3">
-        <v>14</v>
-      </c>
-      <c r="V65" s="3">
-        <v>12</v>
-      </c>
-      <c r="W65" s="3">
+      <c r="AB65" s="3">
+        <v>16</v>
+      </c>
+      <c r="AC65" s="3">
         <v>22</v>
       </c>
-      <c r="X65" s="3">
-        <v>15</v>
-      </c>
-      <c r="Y65" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z65" s="3">
+      <c r="AD65" s="3">
+        <v>13</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>17</v>
+      </c>
+      <c r="AF65" s="3">
         <v>10</v>
       </c>
-      <c r="AA65" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB65" s="3">
-        <v>8</v>
-      </c>
-      <c r="AC65" s="3">
-        <v>15</v>
-      </c>
-      <c r="AD65" s="3">
-        <v>5</v>
-      </c>
-      <c r="AE65" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF65" s="3">
-        <v>5</v>
-      </c>
-      <c r="AG65" s="4"/>
+      <c r="AG65" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="B66" s="3">
-        <v>58</v>
-      </c>
-      <c r="C66" s="3">
-        <v>48</v>
-      </c>
-      <c r="D66" s="3">
-        <v>33</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="3">
+        <v>75</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>62</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>62</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>46</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>41</v>
+      </c>
+      <c r="AD66" s="3">
         <v>44</v>
       </c>
-      <c r="F66" s="3">
-        <v>38</v>
-      </c>
-      <c r="G66" s="3">
-        <v>42</v>
-      </c>
-      <c r="H66" s="3">
-        <v>39</v>
-      </c>
-      <c r="I66" s="3">
-        <v>45</v>
-      </c>
-      <c r="J66" s="3">
-        <v>41</v>
-      </c>
-      <c r="K66" s="3">
-        <v>33</v>
-      </c>
-      <c r="L66" s="3">
-        <v>39</v>
-      </c>
-      <c r="M66" s="3">
-        <v>42</v>
-      </c>
-      <c r="N66" s="3">
-        <v>43</v>
-      </c>
-      <c r="O66" s="3">
-        <v>36</v>
-      </c>
-      <c r="P66" s="3">
-        <v>44</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>31</v>
-      </c>
-      <c r="R66" s="3">
-        <v>45</v>
-      </c>
-      <c r="S66" s="3">
-        <v>39</v>
-      </c>
-      <c r="T66" s="3">
-        <v>44</v>
-      </c>
-      <c r="U66" s="3">
-        <v>47</v>
-      </c>
-      <c r="V66" s="3">
-        <v>58</v>
-      </c>
-      <c r="W66" s="3">
-        <v>46</v>
-      </c>
-      <c r="X66" s="3">
-        <v>35</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>40</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>25</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>22</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>16</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>22</v>
-      </c>
-      <c r="AD66" s="3">
-        <v>13</v>
-      </c>
       <c r="AE66" s="3">
+        <v>29</v>
+      </c>
+      <c r="AF66" s="3">
+        <v>23</v>
+      </c>
+      <c r="AG66" s="3">
         <v>17</v>
-      </c>
-      <c r="AF66" s="3">
-        <v>10</v>
-      </c>
-      <c r="AG66" s="3">
-        <v>16</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="6"/>
+      <c r="B67" s="3">
+        <v>191</v>
+      </c>
+      <c r="C67" s="3">
+        <v>173</v>
+      </c>
+      <c r="D67" s="3">
+        <v>163</v>
+      </c>
+      <c r="E67" s="3">
+        <v>186</v>
+      </c>
+      <c r="F67" s="3">
+        <v>167</v>
+      </c>
+      <c r="G67" s="3">
+        <v>143</v>
+      </c>
+      <c r="H67" s="3">
+        <v>142</v>
+      </c>
+      <c r="I67" s="3">
+        <v>147</v>
+      </c>
+      <c r="J67" s="3">
+        <v>146</v>
+      </c>
+      <c r="K67" s="3">
+        <v>132</v>
+      </c>
+      <c r="L67" s="3">
+        <v>130</v>
+      </c>
+      <c r="M67" s="3">
+        <v>125</v>
+      </c>
+      <c r="N67" s="3">
+        <v>128</v>
+      </c>
+      <c r="O67" s="3">
+        <v>125</v>
+      </c>
+      <c r="P67" s="3">
+        <v>133</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>99</v>
+      </c>
+      <c r="R67" s="3">
+        <v>78</v>
+      </c>
+      <c r="S67" s="3">
+        <v>96</v>
+      </c>
+      <c r="T67" s="3">
+        <v>105</v>
+      </c>
+      <c r="U67" s="3">
+        <v>113</v>
+      </c>
+      <c r="V67" s="3">
+        <v>106</v>
+      </c>
+      <c r="W67" s="3">
+        <v>105</v>
+      </c>
+      <c r="X67" s="3">
+        <v>107</v>
+      </c>
       <c r="Y67" s="3">
+        <v>116</v>
+      </c>
+      <c r="Z67" s="3">
+        <v>88</v>
+      </c>
+      <c r="AA67" s="3">
         <v>75</v>
       </c>
-      <c r="Z67" s="3">
-        <v>62</v>
-      </c>
-      <c r="AA67" s="3">
-        <v>62</v>
-      </c>
       <c r="AB67" s="3">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="AC67" s="3">
+        <v>60</v>
+      </c>
+      <c r="AD67" s="3">
+        <v>55</v>
+      </c>
+      <c r="AE67" s="3">
+        <v>35</v>
+      </c>
+      <c r="AF67" s="3">
+        <v>31</v>
+      </c>
+      <c r="AG67" s="3">
         <v>41</v>
-      </c>
-      <c r="AD67" s="3">
-        <v>44</v>
-      </c>
-      <c r="AE67" s="3">
-        <v>29</v>
-      </c>
-      <c r="AF67" s="3">
-        <v>23</v>
-      </c>
-      <c r="AG67" s="3">
-        <v>17</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
@@ -8177,100 +8101,100 @@
         <v>99</v>
       </c>
       <c r="B68" s="3">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C68" s="3">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="D68" s="3">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="E68" s="3">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="F68" s="3">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="G68" s="3">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="H68" s="3">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="I68" s="3">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="J68" s="3">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="K68" s="3">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="L68" s="3">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="M68" s="3">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="N68" s="3">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="O68" s="3">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="P68" s="3">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="Q68" s="3">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="R68" s="3">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S68" s="3">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="T68" s="3">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="U68" s="3">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="V68" s="3">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="W68" s="3">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="X68" s="3">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="Y68" s="3">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="Z68" s="3">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="AA68" s="3">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AB68" s="3">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC68" s="3">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AD68" s="3">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AE68" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AF68" s="3">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AG68" s="3">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
@@ -8278,100 +8202,100 @@
         <v>100</v>
       </c>
       <c r="B69" s="3">
+        <v>148</v>
+      </c>
+      <c r="C69" s="3">
+        <v>140</v>
+      </c>
+      <c r="D69" s="3">
+        <v>147</v>
+      </c>
+      <c r="E69" s="3">
+        <v>121</v>
+      </c>
+      <c r="F69" s="3">
+        <v>93</v>
+      </c>
+      <c r="G69" s="3">
+        <v>100</v>
+      </c>
+      <c r="H69" s="3">
+        <v>109</v>
+      </c>
+      <c r="I69" s="3">
+        <v>106</v>
+      </c>
+      <c r="J69" s="3">
+        <v>83</v>
+      </c>
+      <c r="K69" s="3">
+        <v>102</v>
+      </c>
+      <c r="L69" s="3">
+        <v>63</v>
+      </c>
+      <c r="M69" s="3">
         <v>85</v>
       </c>
-      <c r="C69" s="3">
-        <v>57</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="N69" s="3">
+        <v>87</v>
+      </c>
+      <c r="O69" s="3">
+        <v>88</v>
+      </c>
+      <c r="P69" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>65</v>
+      </c>
+      <c r="R69" s="3">
+        <v>52</v>
+      </c>
+      <c r="S69" s="3">
+        <v>69</v>
+      </c>
+      <c r="T69" s="3">
+        <v>70</v>
+      </c>
+      <c r="U69" s="3">
+        <v>75</v>
+      </c>
+      <c r="V69" s="3">
+        <v>65</v>
+      </c>
+      <c r="W69" s="3">
         <v>66</v>
       </c>
-      <c r="E69" s="3">
-        <v>60</v>
-      </c>
-      <c r="F69" s="3">
-        <v>59</v>
-      </c>
-      <c r="G69" s="3">
-        <v>57</v>
-      </c>
-      <c r="H69" s="3">
-        <v>62</v>
-      </c>
-      <c r="I69" s="3">
-        <v>48</v>
-      </c>
-      <c r="J69" s="3">
-        <v>53</v>
-      </c>
-      <c r="K69" s="3">
-        <v>53</v>
-      </c>
-      <c r="L69" s="3">
-        <v>50</v>
-      </c>
-      <c r="M69" s="3">
-        <v>46</v>
-      </c>
-      <c r="N69" s="3">
-        <v>49</v>
-      </c>
-      <c r="O69" s="3">
-        <v>58</v>
-      </c>
-      <c r="P69" s="3">
-        <v>48</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>36</v>
-      </c>
-      <c r="R69" s="3">
+      <c r="X69" s="3">
+        <v>85</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>74</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>71</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>61</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>34</v>
+      </c>
+      <c r="AD69" s="3">
         <v>37</v>
       </c>
-      <c r="S69" s="3">
-        <v>34</v>
-      </c>
-      <c r="T69" s="3">
-        <v>37</v>
-      </c>
-      <c r="U69" s="3">
-        <v>29</v>
-      </c>
-      <c r="V69" s="3">
-        <v>32</v>
-      </c>
-      <c r="W69" s="3">
-        <v>36</v>
-      </c>
-      <c r="X69" s="3">
-        <v>47</v>
-      </c>
-      <c r="Y69" s="3">
-        <v>49</v>
-      </c>
-      <c r="Z69" s="3">
-        <v>34</v>
-      </c>
-      <c r="AA69" s="3">
-        <v>36</v>
-      </c>
-      <c r="AB69" s="3">
-        <v>32</v>
-      </c>
-      <c r="AC69" s="3">
-        <v>26</v>
-      </c>
-      <c r="AD69" s="3">
-        <v>19</v>
-      </c>
       <c r="AE69" s="3">
+        <v>20</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>17</v>
+      </c>
+      <c r="AG69" s="3">
         <v>25</v>
-      </c>
-      <c r="AF69" s="3">
-        <v>21</v>
-      </c>
-      <c r="AG69" s="3">
-        <v>13</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
@@ -8379,100 +8303,100 @@
         <v>101</v>
       </c>
       <c r="B70" s="3">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="C70" s="3">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="D70" s="3">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="E70" s="3">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="F70" s="3">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="G70" s="3">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="H70" s="3">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="I70" s="3">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="J70" s="3">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="K70" s="3">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="L70" s="3">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M70" s="3">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N70" s="3">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="O70" s="3">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="P70" s="3">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="Q70" s="3">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="R70" s="3">
+        <v>41</v>
+      </c>
+      <c r="S70" s="3">
         <v>52</v>
       </c>
-      <c r="S70" s="3">
-        <v>69</v>
-      </c>
       <c r="T70" s="3">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="U70" s="3">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="V70" s="3">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="W70" s="3">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="X70" s="3">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="Y70" s="3">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="Z70" s="3">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="AA70" s="3">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="AB70" s="3">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AC70" s="3">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AD70" s="3">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="AE70" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AF70" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AG70" s="3">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
@@ -8480,100 +8404,100 @@
         <v>102</v>
       </c>
       <c r="B71" s="3">
+        <v>217</v>
+      </c>
+      <c r="C71" s="3">
+        <v>245</v>
+      </c>
+      <c r="D71" s="3">
+        <v>230</v>
+      </c>
+      <c r="E71" s="3">
+        <v>249</v>
+      </c>
+      <c r="F71" s="3">
+        <v>226</v>
+      </c>
+      <c r="G71" s="3">
+        <v>261</v>
+      </c>
+      <c r="H71" s="3">
+        <v>220</v>
+      </c>
+      <c r="I71" s="3">
+        <v>213</v>
+      </c>
+      <c r="J71" s="3">
+        <v>176</v>
+      </c>
+      <c r="K71" s="3">
+        <v>196</v>
+      </c>
+      <c r="L71" s="3">
+        <v>200</v>
+      </c>
+      <c r="M71" s="3">
+        <v>178</v>
+      </c>
+      <c r="N71" s="3">
+        <v>187</v>
+      </c>
+      <c r="O71" s="3">
+        <v>168</v>
+      </c>
+      <c r="P71" s="3">
+        <v>195</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>160</v>
+      </c>
+      <c r="R71" s="3">
+        <v>143</v>
+      </c>
+      <c r="S71" s="3">
+        <v>157</v>
+      </c>
+      <c r="T71" s="3">
+        <v>138</v>
+      </c>
+      <c r="U71" s="3">
+        <v>150</v>
+      </c>
+      <c r="V71" s="3">
+        <v>156</v>
+      </c>
+      <c r="W71" s="3">
+        <v>107</v>
+      </c>
+      <c r="X71" s="3">
+        <v>173</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>154</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>117</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>94</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>87</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>79</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>70</v>
+      </c>
+      <c r="AE71" s="3">
         <v>60</v>
       </c>
-      <c r="C71" s="3">
-        <v>58</v>
-      </c>
-      <c r="D71" s="3">
-        <v>58</v>
-      </c>
-      <c r="E71" s="3">
-        <v>51</v>
-      </c>
-      <c r="F71" s="3">
-        <v>57</v>
-      </c>
-      <c r="G71" s="3">
-        <v>51</v>
-      </c>
-      <c r="H71" s="3">
-        <v>63</v>
-      </c>
-      <c r="I71" s="3">
-        <v>41</v>
-      </c>
-      <c r="J71" s="3">
-        <v>56</v>
-      </c>
-      <c r="K71" s="3">
-        <v>54</v>
-      </c>
-      <c r="L71" s="3">
-        <v>57</v>
-      </c>
-      <c r="M71" s="3">
-        <v>48</v>
-      </c>
-      <c r="N71" s="3">
-        <v>60</v>
-      </c>
-      <c r="O71" s="3">
+      <c r="AF71" s="3">
         <v>44</v>
       </c>
-      <c r="P71" s="3">
-        <v>43</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>43</v>
-      </c>
-      <c r="R71" s="3">
-        <v>41</v>
-      </c>
-      <c r="S71" s="3">
-        <v>52</v>
-      </c>
-      <c r="T71" s="3">
-        <v>38</v>
-      </c>
-      <c r="U71" s="3">
-        <v>25</v>
-      </c>
-      <c r="V71" s="3">
-        <v>36</v>
-      </c>
-      <c r="W71" s="3">
-        <v>41</v>
-      </c>
-      <c r="X71" s="3">
-        <v>54</v>
-      </c>
-      <c r="Y71" s="3">
-        <v>41</v>
-      </c>
-      <c r="Z71" s="3">
-        <v>30</v>
-      </c>
-      <c r="AA71" s="3">
-        <v>36</v>
-      </c>
-      <c r="AB71" s="3">
-        <v>31</v>
-      </c>
-      <c r="AC71" s="3">
-        <v>14</v>
-      </c>
-      <c r="AD71" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE71" s="3">
-        <v>8</v>
-      </c>
-      <c r="AF71" s="3">
-        <v>5</v>
-      </c>
       <c r="AG71" s="3">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
@@ -8581,100 +8505,100 @@
         <v>103</v>
       </c>
       <c r="B72" s="3">
-        <v>217</v>
+        <v>346</v>
       </c>
       <c r="C72" s="3">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="D72" s="3">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="E72" s="3">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="F72" s="3">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="G72" s="3">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H72" s="3">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="I72" s="3">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J72" s="3">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="K72" s="3">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="L72" s="3">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="M72" s="3">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="N72" s="3">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="O72" s="3">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P72" s="3">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="Q72" s="3">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="R72" s="3">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="S72" s="3">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="T72" s="3">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="U72" s="3">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="V72" s="3">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="W72" s="3">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="X72" s="3">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="Y72" s="3">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="Z72" s="3">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AA72" s="3">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AB72" s="3">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AC72" s="3">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AD72" s="3">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AE72" s="3">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AF72" s="3">
         <v>44</v>
       </c>
       <c r="AG72" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
@@ -8682,100 +8606,100 @@
         <v>104</v>
       </c>
       <c r="B73" s="3">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="C73" s="3">
-        <v>315</v>
+        <v>250</v>
       </c>
       <c r="D73" s="3">
-        <v>298</v>
+        <v>217</v>
       </c>
       <c r="E73" s="3">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="F73" s="3">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="G73" s="3">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="H73" s="3">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="I73" s="3">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="J73" s="3">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="K73" s="3">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="L73" s="3">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="M73" s="3">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="N73" s="3">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="O73" s="3">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="P73" s="3">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="Q73" s="3">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="R73" s="3">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="S73" s="3">
+        <v>122</v>
+      </c>
+      <c r="T73" s="3">
+        <v>113</v>
+      </c>
+      <c r="U73" s="3">
         <v>144</v>
       </c>
-      <c r="T73" s="3">
-        <v>144</v>
-      </c>
-      <c r="U73" s="3">
-        <v>167</v>
-      </c>
       <c r="V73" s="3">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="W73" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="X73" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="Y73" s="3">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="Z73" s="3">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="AA73" s="3">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="AB73" s="3">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC73" s="3">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AD73" s="3">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AE73" s="3">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AF73" s="3">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AG73" s="3">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
@@ -8783,258 +8707,302 @@
         <v>105</v>
       </c>
       <c r="B74" s="3">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="C74" s="3">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="D74" s="3">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="E74" s="3">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="F74" s="3">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="G74" s="3">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="H74" s="3">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="I74" s="3">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="J74" s="3">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="K74" s="3">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="L74" s="3">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="M74" s="3">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="N74" s="3">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="O74" s="3">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="P74" s="3">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="Q74" s="3">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="R74" s="3">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="S74" s="3">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="T74" s="3">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="U74" s="3">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="V74" s="3">
-        <v>4</v>
-      </c>
-      <c r="W74" s="7"/>
-      <c r="X74" s="8"/>
-      <c r="Y74" s="8"/>
-      <c r="Z74" s="8"/>
-      <c r="AA74" s="8"/>
-      <c r="AB74" s="8"/>
-      <c r="AC74" s="8"/>
-      <c r="AD74" s="8"/>
-      <c r="AE74" s="8"/>
-      <c r="AF74" s="8"/>
-      <c r="AG74" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="W74" s="3">
+        <v>55</v>
+      </c>
+      <c r="X74" s="3">
+        <v>55</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>56</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>59</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>39</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>45</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>38</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>23</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>23</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG74" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" t="s" s="2">
         <v>106</v>
       </c>
       <c r="B75" s="3">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="C75" s="3">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="D75" s="3">
-        <v>3</v>
+        <v>193</v>
       </c>
       <c r="E75" s="3">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F75" s="3">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="G75" s="3">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="H75" s="3">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="I75" s="3">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="J75" s="3">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="K75" s="3">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="L75" s="3">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="M75" s="3">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="N75" s="3">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="O75" s="3">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="P75" s="3">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="Q75" s="3">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="R75" s="3">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="S75" s="3">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="T75" s="3">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="U75" s="3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="V75" s="3">
-        <v>1</v>
-      </c>
-      <c r="W75" s="9"/>
-      <c r="X75" s="10"/>
-      <c r="Y75" s="10"/>
-      <c r="Z75" s="10"/>
-      <c r="AA75" s="10"/>
-      <c r="AB75" s="10"/>
-      <c r="AC75" s="10"/>
-      <c r="AD75" s="10"/>
-      <c r="AE75" s="10"/>
-      <c r="AF75" s="10"/>
-      <c r="AG75" s="10"/>
+        <v>89</v>
+      </c>
+      <c r="W75" s="3">
+        <v>68</v>
+      </c>
+      <c r="X75" s="3">
+        <v>67</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>67</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>77</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>56</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>62</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>48</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>38</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>39</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>34</v>
+      </c>
+      <c r="AG75" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" t="s" s="2">
         <v>107</v>
       </c>
       <c r="B76" s="3">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="C76" s="3">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="D76" s="3">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="E76" s="3">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F76" s="3">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="G76" s="3">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="H76" s="3">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I76" s="3">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="J76" s="3">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="K76" s="3">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="L76" s="3">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="M76" s="3">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="N76" s="3">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="O76" s="3">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="P76" s="3">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="Q76" s="3">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="R76" s="3">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="S76" s="3">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="T76" s="3">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="U76" s="3">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="V76" s="3">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="W76" s="3">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="X76" s="3">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="Y76" s="3">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="Z76" s="3">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA76" s="3">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AB76" s="3">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC76" s="3">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="AD76" s="3">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AE76" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF76" s="3">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AG76" s="3">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -9042,179 +9010,201 @@
         <v>108</v>
       </c>
       <c r="B77" s="3">
+        <v>91</v>
+      </c>
+      <c r="C77" s="3">
+        <v>77</v>
+      </c>
+      <c r="D77" s="3">
         <v>69</v>
       </c>
-      <c r="C77" s="3">
+      <c r="E77" s="3">
+        <v>74</v>
+      </c>
+      <c r="F77" s="3">
+        <v>76</v>
+      </c>
+      <c r="G77" s="3">
+        <v>84</v>
+      </c>
+      <c r="H77" s="3">
+        <v>87</v>
+      </c>
+      <c r="I77" s="3">
+        <v>90</v>
+      </c>
+      <c r="J77" s="3">
+        <v>73</v>
+      </c>
+      <c r="K77" s="3">
+        <v>108</v>
+      </c>
+      <c r="L77" s="3">
+        <v>66</v>
+      </c>
+      <c r="M77" s="3">
+        <v>66</v>
+      </c>
+      <c r="N77" s="3">
+        <v>58</v>
+      </c>
+      <c r="O77" s="3">
+        <v>56</v>
+      </c>
+      <c r="P77" s="3">
         <v>48</v>
       </c>
-      <c r="D77" s="3">
-        <v>53</v>
-      </c>
-      <c r="E77" s="3">
-        <v>63</v>
-      </c>
-      <c r="F77" s="3">
-        <v>56</v>
-      </c>
-      <c r="G77" s="3">
-        <v>41</v>
-      </c>
-      <c r="H77" s="3">
-        <v>43</v>
-      </c>
-      <c r="I77" s="3">
+      <c r="Q77" s="3">
+        <v>44</v>
+      </c>
+      <c r="R77" s="3">
+        <v>49</v>
+      </c>
+      <c r="S77" s="3">
+        <v>46</v>
+      </c>
+      <c r="T77" s="3">
+        <v>50</v>
+      </c>
+      <c r="U77" s="3">
         <v>39</v>
       </c>
-      <c r="J77" s="3">
+      <c r="V77" s="3">
+        <v>44</v>
+      </c>
+      <c r="W77" s="3">
         <v>35</v>
       </c>
-      <c r="K77" s="3">
-        <v>56</v>
-      </c>
-      <c r="L77" s="3">
-        <v>36</v>
-      </c>
-      <c r="M77" s="3">
-        <v>41</v>
-      </c>
-      <c r="N77" s="3">
-        <v>40</v>
-      </c>
-      <c r="O77" s="3">
-        <v>33</v>
-      </c>
-      <c r="P77" s="3">
-        <v>41</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>29</v>
-      </c>
-      <c r="R77" s="3">
-        <v>26</v>
-      </c>
-      <c r="S77" s="3">
-        <v>38</v>
-      </c>
-      <c r="T77" s="3">
-        <v>25</v>
-      </c>
-      <c r="U77" s="3">
-        <v>32</v>
-      </c>
-      <c r="V77" s="3">
-        <v>31</v>
-      </c>
-      <c r="W77" s="4"/>
-      <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="5"/>
-      <c r="AC77" s="5"/>
-      <c r="AD77" s="5"/>
-      <c r="AE77" s="5"/>
-      <c r="AF77" s="5"/>
-      <c r="AG77" s="5"/>
+      <c r="X77" s="3">
+        <v>52</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>39</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>34</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>35</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>30</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>19</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>24</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>14</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG77" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" t="s" s="2">
         <v>109</v>
       </c>
       <c r="B78" s="3">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="C78" s="3">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D78" s="3">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E78" s="3">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F78" s="3">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="G78" s="3">
+        <v>87</v>
+      </c>
+      <c r="H78" s="3">
+        <v>76</v>
+      </c>
+      <c r="I78" s="3">
+        <v>100</v>
+      </c>
+      <c r="J78" s="3">
+        <v>98</v>
+      </c>
+      <c r="K78" s="3">
+        <v>120</v>
+      </c>
+      <c r="L78" s="3">
+        <v>85</v>
+      </c>
+      <c r="M78" s="3">
+        <v>102</v>
+      </c>
+      <c r="N78" s="3">
         <v>108</v>
       </c>
-      <c r="H78" s="3">
-        <v>99</v>
-      </c>
-      <c r="I78" s="3">
-        <v>85</v>
-      </c>
-      <c r="J78" s="3">
-        <v>75</v>
-      </c>
-      <c r="K78" s="3">
-        <v>101</v>
-      </c>
-      <c r="L78" s="3">
-        <v>79</v>
-      </c>
-      <c r="M78" s="3">
-        <v>86</v>
-      </c>
-      <c r="N78" s="3">
-        <v>70</v>
-      </c>
       <c r="O78" s="3">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="P78" s="3">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="Q78" s="3">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="R78" s="3">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="S78" s="3">
+        <v>92</v>
+      </c>
+      <c r="T78" s="3">
+        <v>82</v>
+      </c>
+      <c r="U78" s="3">
+        <v>88</v>
+      </c>
+      <c r="V78" s="3">
+        <v>60</v>
+      </c>
+      <c r="W78" s="3">
+        <v>73</v>
+      </c>
+      <c r="X78" s="3">
+        <v>82</v>
+      </c>
+      <c r="Y78" s="3">
+        <v>81</v>
+      </c>
+      <c r="Z78" s="3">
+        <v>60</v>
+      </c>
+      <c r="AA78" s="3">
+        <v>65</v>
+      </c>
+      <c r="AB78" s="3">
         <v>55</v>
       </c>
-      <c r="T78" s="3">
-        <v>64</v>
-      </c>
-      <c r="U78" s="3">
-        <v>66</v>
-      </c>
-      <c r="V78" s="3">
-        <v>66</v>
-      </c>
-      <c r="W78" s="3">
-        <v>55</v>
-      </c>
-      <c r="X78" s="3">
-        <v>55</v>
-      </c>
-      <c r="Y78" s="3">
-        <v>56</v>
-      </c>
-      <c r="Z78" s="3">
-        <v>59</v>
-      </c>
-      <c r="AA78" s="3">
-        <v>39</v>
-      </c>
-      <c r="AB78" s="3">
-        <v>45</v>
-      </c>
       <c r="AC78" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AD78" s="3">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AE78" s="3">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AF78" s="3">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AG78" s="3">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
@@ -9222,100 +9212,100 @@
         <v>110</v>
       </c>
       <c r="B79" s="3">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="C79" s="3">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c r="D79" s="3">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="E79" s="3">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="F79" s="3">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="G79" s="3">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="H79" s="3">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="I79" s="3">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="J79" s="3">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K79" s="3">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="L79" s="3">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="M79" s="3">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N79" s="3">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="O79" s="3">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="P79" s="3">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="Q79" s="3">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="R79" s="3">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="S79" s="3">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="T79" s="3">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="U79" s="3">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="V79" s="3">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="W79" s="3">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="X79" s="3">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Y79" s="3">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Z79" s="3">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="AA79" s="3">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AB79" s="3">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="AC79" s="3">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AD79" s="3">
+        <v>26</v>
+      </c>
+      <c r="AE79" s="3">
         <v>38</v>
       </c>
-      <c r="AE79" s="3">
-        <v>39</v>
-      </c>
       <c r="AF79" s="3">
+        <v>31</v>
+      </c>
+      <c r="AG79" s="3">
         <v>34</v>
-      </c>
-      <c r="AG79" s="3">
-        <v>38</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
@@ -9323,100 +9313,100 @@
         <v>111</v>
       </c>
       <c r="B80" s="3">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C80" s="3">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="D80" s="3">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E80" s="3">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="F80" s="3">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="G80" s="3">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H80" s="3">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="I80" s="3">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="J80" s="3">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K80" s="3">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="L80" s="3">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="M80" s="3">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N80" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O80" s="3">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="P80" s="3">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="Q80" s="3">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="R80" s="3">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="S80" s="3">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="T80" s="3">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="U80" s="3">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="V80" s="3">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="W80" s="3">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="X80" s="3">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="Y80" s="3">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="Z80" s="3">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AA80" s="3">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="AB80" s="3">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="AC80" s="3">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="AD80" s="3">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="AE80" s="3">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="AF80" s="3">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AG80" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" ht="12.75" customHeight="1">
@@ -9424,100 +9414,100 @@
         <v>112</v>
       </c>
       <c r="B81" s="3">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C81" s="3">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="D81" s="3">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E81" s="3">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="F81" s="3">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="G81" s="3">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="H81" s="3">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="I81" s="3">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J81" s="3">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="K81" s="3">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="L81" s="3">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="M81" s="3">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="N81" s="3">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="O81" s="3">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P81" s="3">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="Q81" s="3">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="R81" s="3">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="S81" s="3">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="T81" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="U81" s="3">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="V81" s="3">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="W81" s="3">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="X81" s="3">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="Y81" s="3">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Z81" s="3">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AA81" s="3">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="AB81" s="3">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AC81" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AD81" s="3">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="AE81" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AF81" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AG81" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
@@ -9525,100 +9515,100 @@
         <v>113</v>
       </c>
       <c r="B82" s="3">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C82" s="3">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="D82" s="3">
+        <v>140</v>
+      </c>
+      <c r="E82" s="3">
+        <v>155</v>
+      </c>
+      <c r="F82" s="3">
+        <v>123</v>
+      </c>
+      <c r="G82" s="3">
+        <v>131</v>
+      </c>
+      <c r="H82" s="3">
+        <v>130</v>
+      </c>
+      <c r="I82" s="3">
+        <v>115</v>
+      </c>
+      <c r="J82" s="3">
         <v>110</v>
       </c>
-      <c r="E82" s="3">
+      <c r="K82" s="3">
         <v>105</v>
       </c>
-      <c r="F82" s="3">
+      <c r="L82" s="3">
+        <v>105</v>
+      </c>
+      <c r="M82" s="3">
+        <v>93</v>
+      </c>
+      <c r="N82" s="3">
+        <v>80</v>
+      </c>
+      <c r="O82" s="3">
+        <v>113</v>
+      </c>
+      <c r="P82" s="3">
+        <v>94</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>106</v>
+      </c>
+      <c r="R82" s="3">
+        <v>75</v>
+      </c>
+      <c r="S82" s="3">
         <v>90</v>
       </c>
-      <c r="G82" s="3">
-        <v>87</v>
-      </c>
-      <c r="H82" s="3">
+      <c r="T82" s="3">
+        <v>78</v>
+      </c>
+      <c r="U82" s="3">
+        <v>85</v>
+      </c>
+      <c r="V82" s="3">
+        <v>69</v>
+      </c>
+      <c r="W82" s="3">
         <v>76</v>
       </c>
-      <c r="I82" s="3">
-        <v>100</v>
-      </c>
-      <c r="J82" s="3">
-        <v>98</v>
-      </c>
-      <c r="K82" s="3">
-        <v>120</v>
-      </c>
-      <c r="L82" s="3">
-        <v>85</v>
-      </c>
-      <c r="M82" s="3">
-        <v>102</v>
-      </c>
-      <c r="N82" s="3">
-        <v>108</v>
-      </c>
-      <c r="O82" s="3">
-        <v>94</v>
-      </c>
-      <c r="P82" s="3">
-        <v>84</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>92</v>
-      </c>
-      <c r="R82" s="3">
-        <v>87</v>
-      </c>
-      <c r="S82" s="3">
-        <v>92</v>
-      </c>
-      <c r="T82" s="3">
-        <v>82</v>
-      </c>
-      <c r="U82" s="3">
-        <v>88</v>
-      </c>
-      <c r="V82" s="3">
-        <v>60</v>
-      </c>
-      <c r="W82" s="3">
-        <v>73</v>
-      </c>
       <c r="X82" s="3">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="Y82" s="3">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Z82" s="3">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="AA82" s="3">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AB82" s="3">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AC82" s="3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AD82" s="3">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AE82" s="3">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AF82" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG82" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
@@ -9626,100 +9616,100 @@
         <v>114</v>
       </c>
       <c r="B83" s="3">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="C83" s="3">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="D83" s="3">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="E83" s="3">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F83" s="3">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="G83" s="3">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="I83" s="3">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="K83" s="3">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="L83" s="3">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="M83" s="3">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="N83" s="3">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="O83" s="3">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="P83" s="3">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="Q83" s="3">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R83" s="3">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S83" s="3">
+        <v>60</v>
+      </c>
+      <c r="T83" s="3">
         <v>55</v>
       </c>
-      <c r="T83" s="3">
-        <v>61</v>
-      </c>
       <c r="U83" s="3">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="V83" s="3">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="W83" s="3">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X83" s="3">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Y83" s="3">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="Z83" s="3">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA83" s="3">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="AB83" s="3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AC83" s="3">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AD83" s="3">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AE83" s="3">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="AF83" s="3">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="AG83" s="3">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
@@ -9727,179 +9717,201 @@
         <v>115</v>
       </c>
       <c r="B84" s="3">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="C84" s="3">
+        <v>124</v>
+      </c>
+      <c r="D84" s="3">
+        <v>106</v>
+      </c>
+      <c r="E84" s="3">
+        <v>108</v>
+      </c>
+      <c r="F84" s="3">
+        <v>111</v>
+      </c>
+      <c r="G84" s="3">
+        <v>99</v>
+      </c>
+      <c r="H84" s="3">
+        <v>100</v>
+      </c>
+      <c r="I84" s="3">
+        <v>118</v>
+      </c>
+      <c r="J84" s="3">
+        <v>86</v>
+      </c>
+      <c r="K84" s="3">
+        <v>91</v>
+      </c>
+      <c r="L84" s="3">
+        <v>85</v>
+      </c>
+      <c r="M84" s="3">
+        <v>106</v>
+      </c>
+      <c r="N84" s="3">
+        <v>87</v>
+      </c>
+      <c r="O84" s="3">
+        <v>70</v>
+      </c>
+      <c r="P84" s="3">
+        <v>70</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>76</v>
+      </c>
+      <c r="R84" s="3">
+        <v>70</v>
+      </c>
+      <c r="S84" s="3">
+        <v>73</v>
+      </c>
+      <c r="T84" s="3">
+        <v>72</v>
+      </c>
+      <c r="U84" s="3">
+        <v>68</v>
+      </c>
+      <c r="V84" s="3">
+        <v>60</v>
+      </c>
+      <c r="W84" s="3">
+        <v>51</v>
+      </c>
+      <c r="X84" s="3">
+        <v>63</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>39</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>31</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>23</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>20</v>
+      </c>
+      <c r="AD84" s="3">
         <v>17</v>
       </c>
-      <c r="D84" s="3">
+      <c r="AE84" s="3">
+        <v>16</v>
+      </c>
+      <c r="AF84" s="3">
         <v>13</v>
       </c>
-      <c r="E84" s="3">
-        <v>11</v>
-      </c>
-      <c r="F84" s="3">
-        <v>11</v>
-      </c>
-      <c r="G84" s="3">
-        <v>12</v>
-      </c>
-      <c r="H84" s="3">
-        <v>9</v>
-      </c>
-      <c r="I84" s="3">
-        <v>10</v>
-      </c>
-      <c r="J84" s="3">
-        <v>10</v>
-      </c>
-      <c r="K84" s="3">
-        <v>7</v>
-      </c>
-      <c r="L84" s="3">
-        <v>7</v>
-      </c>
-      <c r="M84" s="3">
-        <v>18</v>
-      </c>
-      <c r="N84" s="3">
-        <v>5</v>
-      </c>
-      <c r="O84" s="3">
-        <v>12</v>
-      </c>
-      <c r="P84" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>7</v>
-      </c>
-      <c r="R84" s="3">
-        <v>3</v>
-      </c>
-      <c r="S84" s="3">
-        <v>7</v>
-      </c>
-      <c r="T84" s="3">
-        <v>4</v>
-      </c>
-      <c r="U84" s="3">
-        <v>6</v>
-      </c>
-      <c r="V84" s="3">
-        <v>8</v>
-      </c>
-      <c r="W84" s="4"/>
-      <c r="X84" s="5"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5"/>
-      <c r="AC84" s="5"/>
-      <c r="AD84" s="5"/>
-      <c r="AE84" s="5"/>
-      <c r="AF84" s="5"/>
-      <c r="AG84" s="5"/>
+      <c r="AG84" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" t="s" s="2">
         <v>116</v>
       </c>
       <c r="B85" s="3">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="C85" s="3">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="D85" s="3">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="E85" s="3">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="F85" s="3">
-        <v>193</v>
+        <v>8</v>
       </c>
       <c r="G85" s="3">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="H85" s="3">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I85" s="3">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="J85" s="3">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="K85" s="3">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="L85" s="3">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="M85" s="3">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="N85" s="3">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="O85" s="3">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="P85" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="3">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="R85" s="3">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="S85" s="3">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="T85" s="3">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="U85" s="3">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="V85" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W85" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="X85" s="3">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="Y85" s="3">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Z85" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AA85" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AB85" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AC85" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AD85" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AE85" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF85" s="3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AG85" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
@@ -9907,43 +9919,43 @@
         <v>117</v>
       </c>
       <c r="B86" s="3">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C86" s="3">
         <v>22</v>
       </c>
       <c r="D86" s="3">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E86" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F86" s="3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G86" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H86" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I86" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J86" s="3">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K86" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L86" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M86" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N86" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O86" s="3">
         <v>11</v>
@@ -9952,55 +9964,55 @@
         <v>6</v>
       </c>
       <c r="Q86" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R86" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="S86" s="3">
+        <v>14</v>
+      </c>
+      <c r="T86" s="3">
+        <v>9</v>
+      </c>
+      <c r="U86" s="3">
         <v>10</v>
       </c>
-      <c r="T86" s="3">
-        <v>2</v>
-      </c>
-      <c r="U86" s="3">
+      <c r="V86" s="3">
         <v>8</v>
-      </c>
-      <c r="V86" s="3">
-        <v>9</v>
       </c>
       <c r="W86" s="3">
         <v>9</v>
       </c>
       <c r="X86" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y86" s="3">
         <v>11</v>
       </c>
       <c r="Z86" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AA86" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AB86" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AC86" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD86" s="3">
         <v>5</v>
       </c>
-      <c r="AD86" s="3">
-        <v>6</v>
-      </c>
       <c r="AE86" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AF86" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG86" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
@@ -10008,784 +10020,200 @@
         <v>118</v>
       </c>
       <c r="B87" s="3">
+        <v>49</v>
+      </c>
+      <c r="C87" s="3">
+        <v>44</v>
+      </c>
+      <c r="D87" s="3">
+        <v>39</v>
+      </c>
+      <c r="E87" s="3">
+        <v>45</v>
+      </c>
+      <c r="F87" s="3">
+        <v>31</v>
+      </c>
+      <c r="G87" s="3">
+        <v>25</v>
+      </c>
+      <c r="H87" s="3">
+        <v>28</v>
+      </c>
+      <c r="I87" s="3">
+        <v>24</v>
+      </c>
+      <c r="J87" s="3">
+        <v>23</v>
+      </c>
+      <c r="K87" s="3">
+        <v>14</v>
+      </c>
+      <c r="L87" s="3">
+        <v>9</v>
+      </c>
+      <c r="M87" s="3">
+        <v>15</v>
+      </c>
+      <c r="N87" s="3">
+        <v>13</v>
+      </c>
+      <c r="O87" s="3">
+        <v>21</v>
+      </c>
+      <c r="P87" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>13</v>
+      </c>
+      <c r="R87" s="3">
+        <v>15</v>
+      </c>
+      <c r="S87" s="3">
+        <v>20</v>
+      </c>
+      <c r="T87" s="3">
+        <v>11</v>
+      </c>
+      <c r="U87" s="3">
+        <v>16</v>
+      </c>
+      <c r="V87" s="3">
+        <v>9</v>
+      </c>
+      <c r="W87" s="3">
+        <v>18</v>
+      </c>
+      <c r="X87" s="3">
+        <v>11</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>16</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>14</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>14</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>16</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>9</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF87" s="3">
         <v>5</v>
       </c>
-      <c r="C87" s="3">
-        <v>10</v>
-      </c>
-      <c r="D87" s="3">
-        <v>12</v>
-      </c>
-      <c r="E87" s="3">
-        <v>13</v>
-      </c>
-      <c r="F87" s="3">
-        <v>8</v>
-      </c>
-      <c r="G87" s="3">
-        <v>9</v>
-      </c>
-      <c r="H87" s="3">
-        <v>12</v>
-      </c>
-      <c r="I87" s="3">
-        <v>8</v>
-      </c>
-      <c r="J87" s="3">
-        <v>11</v>
-      </c>
-      <c r="K87" s="3">
-        <v>8</v>
-      </c>
-      <c r="L87" s="3">
-        <v>5</v>
-      </c>
-      <c r="M87" s="3">
-        <v>5</v>
-      </c>
-      <c r="N87" s="3">
-        <v>7</v>
-      </c>
-      <c r="O87" s="3">
-        <v>3</v>
-      </c>
-      <c r="P87" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>10</v>
-      </c>
-      <c r="R87" s="3">
-        <v>5</v>
-      </c>
-      <c r="S87" s="3">
+      <c r="AG87" s="3">
         <v>6</v>
       </c>
-      <c r="T87" s="3">
-        <v>1</v>
-      </c>
-      <c r="U87" s="3">
-        <v>4</v>
-      </c>
-      <c r="V87" s="3">
-        <v>7</v>
-      </c>
-      <c r="W87" s="4"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
-      <c r="AB87" s="5"/>
-      <c r="AC87" s="5"/>
-      <c r="AD87" s="5"/>
-      <c r="AE87" s="5"/>
-      <c r="AF87" s="5"/>
-      <c r="AG87" s="5"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" t="s" s="2">
         <v>119</v>
       </c>
       <c r="B88" s="3">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="C88" s="3">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="D88" s="3">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="E88" s="3">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="F88" s="3">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="G88" s="3">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="H88" s="3">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="I88" s="3">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="J88" s="3">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="K88" s="3">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="L88" s="3">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="M88" s="3">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="N88" s="3">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="O88" s="3">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="P88" s="3">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="Q88" s="3">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="R88" s="3">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="S88" s="3">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="T88" s="3">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="U88" s="3">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="V88" s="3">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="W88" s="3">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="X88" s="3">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="Y88" s="3">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="Z88" s="3">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="AA88" s="3">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="AB88" s="3">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AC88" s="3">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="AD88" s="3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE88" s="3">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="AF88" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AG88" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B89" s="3">
-        <v>108</v>
-      </c>
-      <c r="C89" s="3">
-        <v>67</v>
-      </c>
-      <c r="D89" s="3">
-        <v>77</v>
-      </c>
-      <c r="E89" s="3">
-        <v>92</v>
-      </c>
-      <c r="F89" s="3">
-        <v>69</v>
-      </c>
-      <c r="G89" s="3">
-        <v>67</v>
-      </c>
-      <c r="H89" s="3">
-        <v>63</v>
-      </c>
-      <c r="I89" s="3">
-        <v>65</v>
-      </c>
-      <c r="J89" s="3">
-        <v>76</v>
-      </c>
-      <c r="K89" s="3">
-        <v>63</v>
-      </c>
-      <c r="L89" s="3">
-        <v>58</v>
-      </c>
-      <c r="M89" s="3">
-        <v>62</v>
-      </c>
-      <c r="N89" s="3">
-        <v>49</v>
-      </c>
-      <c r="O89" s="3">
-        <v>57</v>
-      </c>
-      <c r="P89" s="3">
-        <v>68</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>67</v>
-      </c>
-      <c r="R89" s="3">
-        <v>51</v>
-      </c>
-      <c r="S89" s="3">
-        <v>60</v>
-      </c>
-      <c r="T89" s="3">
-        <v>55</v>
-      </c>
-      <c r="U89" s="3">
-        <v>47</v>
-      </c>
-      <c r="V89" s="3">
-        <v>47</v>
-      </c>
-      <c r="W89" s="3">
-        <v>48</v>
-      </c>
-      <c r="X89" s="3">
-        <v>49</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>42</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>34</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>22</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>20</v>
-      </c>
-      <c r="AC89" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD89" s="3">
-        <v>9</v>
-      </c>
-      <c r="AE89" s="3">
-        <v>7</v>
-      </c>
-      <c r="AF89" s="3">
-        <v>5</v>
-      </c>
-      <c r="AG89" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B90" s="3">
-        <v>142</v>
-      </c>
-      <c r="C90" s="3">
-        <v>124</v>
-      </c>
-      <c r="D90" s="3">
-        <v>106</v>
-      </c>
-      <c r="E90" s="3">
-        <v>108</v>
-      </c>
-      <c r="F90" s="3">
-        <v>111</v>
-      </c>
-      <c r="G90" s="3">
-        <v>99</v>
-      </c>
-      <c r="H90" s="3">
-        <v>100</v>
-      </c>
-      <c r="I90" s="3">
-        <v>118</v>
-      </c>
-      <c r="J90" s="3">
-        <v>86</v>
-      </c>
-      <c r="K90" s="3">
-        <v>91</v>
-      </c>
-      <c r="L90" s="3">
-        <v>85</v>
-      </c>
-      <c r="M90" s="3">
-        <v>106</v>
-      </c>
-      <c r="N90" s="3">
-        <v>87</v>
-      </c>
-      <c r="O90" s="3">
-        <v>70</v>
-      </c>
-      <c r="P90" s="3">
-        <v>70</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>76</v>
-      </c>
-      <c r="R90" s="3">
-        <v>70</v>
-      </c>
-      <c r="S90" s="3">
-        <v>73</v>
-      </c>
-      <c r="T90" s="3">
-        <v>72</v>
-      </c>
-      <c r="U90" s="3">
-        <v>68</v>
-      </c>
-      <c r="V90" s="3">
-        <v>60</v>
-      </c>
-      <c r="W90" s="3">
-        <v>51</v>
-      </c>
-      <c r="X90" s="3">
-        <v>63</v>
-      </c>
-      <c r="Y90" s="3">
-        <v>50</v>
-      </c>
-      <c r="Z90" s="3">
-        <v>39</v>
-      </c>
-      <c r="AA90" s="3">
-        <v>31</v>
-      </c>
-      <c r="AB90" s="3">
-        <v>23</v>
-      </c>
-      <c r="AC90" s="3">
-        <v>20</v>
-      </c>
-      <c r="AD90" s="3">
-        <v>17</v>
-      </c>
-      <c r="AE90" s="3">
-        <v>16</v>
-      </c>
-      <c r="AF90" s="3">
-        <v>13</v>
-      </c>
-      <c r="AG90" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B91" s="3">
-        <v>17</v>
-      </c>
-      <c r="C91" s="3">
-        <v>11</v>
-      </c>
-      <c r="D91" s="3">
-        <v>11</v>
-      </c>
-      <c r="E91" s="3">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>6</v>
-      </c>
-      <c r="I91" s="3">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>1</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>2</v>
-      </c>
-      <c r="N91" s="3">
-        <v>2</v>
-      </c>
-      <c r="O91" s="3">
-        <v>2</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>2</v>
-      </c>
-      <c r="R91" s="3">
-        <v>1</v>
-      </c>
-      <c r="S91" s="3">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
-        <v>2</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B92" s="3">
-        <v>29</v>
-      </c>
-      <c r="C92" s="3">
-        <v>22</v>
-      </c>
-      <c r="D92" s="3">
-        <v>19</v>
-      </c>
-      <c r="E92" s="3">
-        <v>25</v>
-      </c>
-      <c r="F92" s="3">
-        <v>18</v>
-      </c>
-      <c r="G92" s="3">
-        <v>14</v>
-      </c>
-      <c r="H92" s="3">
-        <v>8</v>
-      </c>
-      <c r="I92" s="3">
-        <v>17</v>
-      </c>
-      <c r="J92" s="3">
-        <v>12</v>
-      </c>
-      <c r="K92" s="3">
-        <v>3</v>
-      </c>
-      <c r="L92" s="3">
-        <v>5</v>
-      </c>
-      <c r="M92" s="3">
-        <v>7</v>
-      </c>
-      <c r="N92" s="3">
-        <v>5</v>
-      </c>
-      <c r="O92" s="3">
-        <v>11</v>
-      </c>
-      <c r="P92" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q92" s="3">
-        <v>16</v>
-      </c>
-      <c r="R92" s="3">
-        <v>19</v>
-      </c>
-      <c r="S92" s="3">
-        <v>14</v>
-      </c>
-      <c r="T92" s="3">
-        <v>9</v>
-      </c>
-      <c r="U92" s="3">
-        <v>10</v>
-      </c>
-      <c r="V92" s="3">
-        <v>8</v>
-      </c>
-      <c r="W92" s="3">
-        <v>9</v>
-      </c>
-      <c r="X92" s="3">
-        <v>13</v>
-      </c>
-      <c r="Y92" s="3">
-        <v>11</v>
-      </c>
-      <c r="Z92" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA92" s="3">
-        <v>8</v>
-      </c>
-      <c r="AB92" s="3">
-        <v>9</v>
-      </c>
-      <c r="AC92" s="3">
-        <v>4</v>
-      </c>
-      <c r="AD92" s="3">
-        <v>5</v>
-      </c>
-      <c r="AE92" s="3">
-        <v>3</v>
-      </c>
-      <c r="AF92" s="3">
-        <v>5</v>
-      </c>
-      <c r="AG92" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B93" s="3">
-        <v>49</v>
-      </c>
-      <c r="C93" s="3">
-        <v>44</v>
-      </c>
-      <c r="D93" s="3">
-        <v>39</v>
-      </c>
-      <c r="E93" s="3">
-        <v>45</v>
-      </c>
-      <c r="F93" s="3">
-        <v>31</v>
-      </c>
-      <c r="G93" s="3">
-        <v>25</v>
-      </c>
-      <c r="H93" s="3">
-        <v>28</v>
-      </c>
-      <c r="I93" s="3">
-        <v>24</v>
-      </c>
-      <c r="J93" s="3">
-        <v>23</v>
-      </c>
-      <c r="K93" s="3">
-        <v>14</v>
-      </c>
-      <c r="L93" s="3">
-        <v>9</v>
-      </c>
-      <c r="M93" s="3">
-        <v>15</v>
-      </c>
-      <c r="N93" s="3">
-        <v>13</v>
-      </c>
-      <c r="O93" s="3">
-        <v>21</v>
-      </c>
-      <c r="P93" s="3">
-        <v>20</v>
-      </c>
-      <c r="Q93" s="3">
-        <v>13</v>
-      </c>
-      <c r="R93" s="3">
-        <v>15</v>
-      </c>
-      <c r="S93" s="3">
-        <v>20</v>
-      </c>
-      <c r="T93" s="3">
-        <v>11</v>
-      </c>
-      <c r="U93" s="3">
-        <v>16</v>
-      </c>
-      <c r="V93" s="3">
-        <v>9</v>
-      </c>
-      <c r="W93" s="3">
-        <v>18</v>
-      </c>
-      <c r="X93" s="3">
-        <v>11</v>
-      </c>
-      <c r="Y93" s="3">
-        <v>16</v>
-      </c>
-      <c r="Z93" s="3">
-        <v>14</v>
-      </c>
-      <c r="AA93" s="3">
-        <v>14</v>
-      </c>
-      <c r="AB93" s="3">
-        <v>16</v>
-      </c>
-      <c r="AC93" s="3">
-        <v>9</v>
-      </c>
-      <c r="AD93" s="3">
-        <v>9</v>
-      </c>
-      <c r="AE93" s="3">
-        <v>3</v>
-      </c>
-      <c r="AF93" s="3">
-        <v>5</v>
-      </c>
-      <c r="AG93" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B94" s="3">
-        <v>20</v>
-      </c>
-      <c r="C94" s="3">
-        <v>21</v>
-      </c>
-      <c r="D94" s="3">
-        <v>25</v>
-      </c>
-      <c r="E94" s="3">
-        <v>20</v>
-      </c>
-      <c r="F94" s="3">
-        <v>14</v>
-      </c>
-      <c r="G94" s="3">
-        <v>17</v>
-      </c>
-      <c r="H94" s="3">
-        <v>17</v>
-      </c>
-      <c r="I94" s="3">
-        <v>12</v>
-      </c>
-      <c r="J94" s="3">
-        <v>13</v>
-      </c>
-      <c r="K94" s="3">
-        <v>12</v>
-      </c>
-      <c r="L94" s="3">
-        <v>11</v>
-      </c>
-      <c r="M94" s="3">
-        <v>20</v>
-      </c>
-      <c r="N94" s="3">
-        <v>11</v>
-      </c>
-      <c r="O94" s="3">
-        <v>9</v>
-      </c>
-      <c r="P94" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>10</v>
-      </c>
-      <c r="R94" s="3">
-        <v>13</v>
-      </c>
-      <c r="S94" s="3">
-        <v>11</v>
-      </c>
-      <c r="T94" s="3">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
-        <v>6</v>
-      </c>
-      <c r="V94" s="3">
-        <v>9</v>
-      </c>
-      <c r="W94" s="3">
-        <v>7</v>
-      </c>
-      <c r="X94" s="3">
-        <v>9</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>13</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>8</v>
-      </c>
-      <c r="AB94" s="3">
-        <v>8</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>5</v>
-      </c>
-      <c r="AD94" s="3">
-        <v>5</v>
-      </c>
-      <c r="AE94" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF94" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG94" s="3">
         <v>6</v>
       </c>
     </row>

--- a/projects/project-7-final/data/child_mortality_rural_1990_2021.xlsx
+++ b/projects/project-7-final/data/child_mortality_rural_1990_2021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>region</t>
   </si>
@@ -208,9 +208,6 @@
     <t xml:space="preserve">        Республика Калмыкия</t>
   </si>
   <si>
-    <t xml:space="preserve">        Республика Крым</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Краснодарский край</t>
   </si>
   <si>
@@ -221,9 +218,6 @@
   </si>
   <si>
     <t xml:space="preserve">        Ростовская область</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Город федерального значения Севастополь</t>
   </si>
   <si>
     <t xml:space="preserve">        Республика Дагестан</t>
@@ -1574,7 +1568,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG88"/>
+  <dimension ref="A1:AG86"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4820,51 +4814,101 @@
       <c r="A34" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="6"/>
+      <c r="B34" s="3">
+        <v>504</v>
+      </c>
+      <c r="C34" s="3">
+        <v>466</v>
+      </c>
+      <c r="D34" s="3">
+        <v>481</v>
+      </c>
+      <c r="E34" s="3">
+        <v>510</v>
+      </c>
+      <c r="F34" s="3">
+        <v>520</v>
+      </c>
+      <c r="G34" s="3">
+        <v>470</v>
+      </c>
+      <c r="H34" s="3">
+        <v>394</v>
+      </c>
+      <c r="I34" s="3">
+        <v>381</v>
+      </c>
+      <c r="J34" s="3">
+        <v>338</v>
+      </c>
+      <c r="K34" s="3">
+        <v>311</v>
+      </c>
+      <c r="L34" s="3">
+        <v>304</v>
+      </c>
+      <c r="M34" s="3">
+        <v>288</v>
+      </c>
+      <c r="N34" s="3">
+        <v>263</v>
+      </c>
+      <c r="O34" s="3">
+        <v>275</v>
+      </c>
+      <c r="P34" s="3">
+        <v>278</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>247</v>
+      </c>
+      <c r="R34" s="3">
+        <v>219</v>
+      </c>
+      <c r="S34" s="3">
+        <v>244</v>
+      </c>
+      <c r="T34" s="3">
+        <v>242</v>
+      </c>
+      <c r="U34" s="3">
+        <v>199</v>
+      </c>
+      <c r="V34" s="3">
+        <v>190</v>
+      </c>
+      <c r="W34" s="3">
+        <v>191</v>
+      </c>
+      <c r="X34" s="3">
+        <v>202</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>166</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>176</v>
+      </c>
       <c r="AA34" s="3">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="AB34" s="3">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="AC34" s="3">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="AD34" s="3">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="AE34" s="3">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="AF34" s="3">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="AG34" s="3">
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -4872,100 +4916,100 @@
         <v>66</v>
       </c>
       <c r="B35" s="3">
-        <v>504</v>
+        <v>103</v>
       </c>
       <c r="C35" s="3">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="D35" s="3">
-        <v>481</v>
+        <v>55</v>
       </c>
       <c r="E35" s="3">
-        <v>510</v>
+        <v>63</v>
       </c>
       <c r="F35" s="3">
-        <v>520</v>
+        <v>62</v>
       </c>
       <c r="G35" s="3">
-        <v>470</v>
+        <v>71</v>
       </c>
       <c r="H35" s="3">
-        <v>394</v>
+        <v>57</v>
       </c>
       <c r="I35" s="3">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="J35" s="3">
-        <v>338</v>
+        <v>92</v>
       </c>
       <c r="K35" s="3">
-        <v>311</v>
+        <v>56</v>
       </c>
       <c r="L35" s="3">
-        <v>304</v>
+        <v>61</v>
       </c>
       <c r="M35" s="3">
-        <v>288</v>
+        <v>70</v>
       </c>
       <c r="N35" s="3">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="O35" s="3">
-        <v>275</v>
+        <v>58</v>
       </c>
       <c r="P35" s="3">
-        <v>278</v>
+        <v>58</v>
       </c>
       <c r="Q35" s="3">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="R35" s="3">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="S35" s="3">
-        <v>244</v>
+        <v>56</v>
       </c>
       <c r="T35" s="3">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="U35" s="3">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="V35" s="3">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="W35" s="3">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="X35" s="3">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="Y35" s="3">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="Z35" s="3">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="AA35" s="3">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="AB35" s="3">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="AC35" s="3">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="AD35" s="3">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="AE35" s="3">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="AF35" s="3">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="AG35" s="3">
-        <v>94</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -4973,100 +5017,100 @@
         <v>67</v>
       </c>
       <c r="B36" s="3">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="C36" s="3">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="D36" s="3">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="E36" s="3">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="F36" s="3">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="G36" s="3">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="H36" s="3">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="I36" s="3">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="J36" s="3">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K36" s="3">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="L36" s="3">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="M36" s="3">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="N36" s="3">
+        <v>105</v>
+      </c>
+      <c r="O36" s="3">
+        <v>113</v>
+      </c>
+      <c r="P36" s="3">
+        <v>110</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>78</v>
+      </c>
+      <c r="R36" s="3">
+        <v>94</v>
+      </c>
+      <c r="S36" s="3">
+        <v>100</v>
+      </c>
+      <c r="T36" s="3">
+        <v>107</v>
+      </c>
+      <c r="U36" s="3">
+        <v>93</v>
+      </c>
+      <c r="V36" s="3">
+        <v>90</v>
+      </c>
+      <c r="W36" s="3">
+        <v>82</v>
+      </c>
+      <c r="X36" s="3">
+        <v>110</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>85</v>
+      </c>
+      <c r="Z36" s="3">
         <v>67</v>
       </c>
-      <c r="O36" s="3">
-        <v>58</v>
-      </c>
-      <c r="P36" s="3">
-        <v>58</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>56</v>
-      </c>
-      <c r="R36" s="3">
+      <c r="AA36" s="3">
         <v>53</v>
       </c>
-      <c r="S36" s="3">
-        <v>56</v>
-      </c>
-      <c r="T36" s="3">
-        <v>55</v>
-      </c>
-      <c r="U36" s="3">
-        <v>40</v>
-      </c>
-      <c r="V36" s="3">
-        <v>35</v>
-      </c>
-      <c r="W36" s="3">
-        <v>38</v>
-      </c>
-      <c r="X36" s="3">
-        <v>29</v>
-      </c>
-      <c r="Y36" s="3">
-        <v>35</v>
-      </c>
-      <c r="Z36" s="3">
-        <v>42</v>
-      </c>
-      <c r="AA36" s="3">
-        <v>30</v>
-      </c>
       <c r="AB36" s="3">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AC36" s="3">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AD36" s="3">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="AE36" s="3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AF36" s="3">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AG36" s="3">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
@@ -5074,100 +5118,100 @@
         <v>68</v>
       </c>
       <c r="B37" s="3">
-        <v>154</v>
+        <v>280</v>
       </c>
       <c r="C37" s="3">
-        <v>181</v>
+        <v>348</v>
       </c>
       <c r="D37" s="3">
-        <v>187</v>
+        <v>333</v>
       </c>
       <c r="E37" s="3">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="F37" s="3">
-        <v>185</v>
+        <v>327</v>
       </c>
       <c r="G37" s="3">
-        <v>175</v>
+        <v>320</v>
       </c>
       <c r="H37" s="3">
-        <v>123</v>
+        <v>321</v>
       </c>
       <c r="I37" s="3">
-        <v>147</v>
+        <v>292</v>
       </c>
       <c r="J37" s="3">
+        <v>279</v>
+      </c>
+      <c r="K37" s="3">
+        <v>280</v>
+      </c>
+      <c r="L37" s="3">
+        <v>263</v>
+      </c>
+      <c r="M37" s="3">
+        <v>216</v>
+      </c>
+      <c r="N37" s="3">
+        <v>214</v>
+      </c>
+      <c r="O37" s="3">
+        <v>206</v>
+      </c>
+      <c r="P37" s="3">
+        <v>217</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>230</v>
+      </c>
+      <c r="R37" s="3">
+        <v>214</v>
+      </c>
+      <c r="S37" s="3">
+        <v>217</v>
+      </c>
+      <c r="T37" s="3">
+        <v>180</v>
+      </c>
+      <c r="U37" s="3">
+        <v>167</v>
+      </c>
+      <c r="V37" s="3">
+        <v>151</v>
+      </c>
+      <c r="W37" s="3">
+        <v>135</v>
+      </c>
+      <c r="X37" s="3">
+        <v>173</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>186</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>137</v>
+      </c>
+      <c r="AA37" s="3">
         <v>120</v>
       </c>
-      <c r="K37" s="3">
-        <v>162</v>
-      </c>
-      <c r="L37" s="3">
-        <v>137</v>
-      </c>
-      <c r="M37" s="3">
-        <v>129</v>
-      </c>
-      <c r="N37" s="3">
-        <v>105</v>
-      </c>
-      <c r="O37" s="3">
-        <v>113</v>
-      </c>
-      <c r="P37" s="3">
-        <v>110</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>78</v>
-      </c>
-      <c r="R37" s="3">
-        <v>94</v>
-      </c>
-      <c r="S37" s="3">
-        <v>100</v>
-      </c>
-      <c r="T37" s="3">
-        <v>107</v>
-      </c>
-      <c r="U37" s="3">
-        <v>93</v>
-      </c>
-      <c r="V37" s="3">
-        <v>90</v>
-      </c>
-      <c r="W37" s="3">
+      <c r="AB37" s="3">
+        <v>114</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>117</v>
+      </c>
+      <c r="AD37" s="3">
         <v>82</v>
       </c>
-      <c r="X37" s="3">
-        <v>110</v>
-      </c>
-      <c r="Y37" s="3">
-        <v>85</v>
-      </c>
-      <c r="Z37" s="3">
-        <v>67</v>
-      </c>
-      <c r="AA37" s="3">
-        <v>53</v>
-      </c>
-      <c r="AB37" s="3">
-        <v>44</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>36</v>
-      </c>
-      <c r="AD37" s="3">
-        <v>43</v>
-      </c>
       <c r="AE37" s="3">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AF37" s="3">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="AG37" s="3">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -5175,151 +5219,201 @@
         <v>69</v>
       </c>
       <c r="B38" s="3">
-        <v>280</v>
+        <v>651</v>
       </c>
       <c r="C38" s="3">
+        <v>684</v>
+      </c>
+      <c r="D38" s="3">
+        <v>645</v>
+      </c>
+      <c r="E38" s="3">
+        <v>646</v>
+      </c>
+      <c r="F38" s="3">
+        <v>599</v>
+      </c>
+      <c r="G38" s="3">
+        <v>561</v>
+      </c>
+      <c r="H38" s="3">
+        <v>589</v>
+      </c>
+      <c r="I38" s="3">
+        <v>593</v>
+      </c>
+      <c r="J38" s="3">
+        <v>604</v>
+      </c>
+      <c r="K38" s="3">
+        <v>616</v>
+      </c>
+      <c r="L38" s="3">
+        <v>490</v>
+      </c>
+      <c r="M38" s="3">
+        <v>414</v>
+      </c>
+      <c r="N38" s="3">
+        <v>408</v>
+      </c>
+      <c r="O38" s="3">
+        <v>358</v>
+      </c>
+      <c r="P38" s="3">
+        <v>341</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>276</v>
+      </c>
+      <c r="R38" s="3">
+        <v>275</v>
+      </c>
+      <c r="S38" s="3">
+        <v>326</v>
+      </c>
+      <c r="T38" s="3">
+        <v>272</v>
+      </c>
+      <c r="U38" s="3">
+        <v>364</v>
+      </c>
+      <c r="V38" s="3">
         <v>348</v>
       </c>
-      <c r="D38" s="3">
-        <v>333</v>
-      </c>
-      <c r="E38" s="3">
-        <v>337</v>
-      </c>
-      <c r="F38" s="3">
-        <v>327</v>
-      </c>
-      <c r="G38" s="3">
-        <v>320</v>
-      </c>
-      <c r="H38" s="3">
-        <v>321</v>
-      </c>
-      <c r="I38" s="3">
-        <v>292</v>
-      </c>
-      <c r="J38" s="3">
-        <v>279</v>
-      </c>
-      <c r="K38" s="3">
-        <v>280</v>
-      </c>
-      <c r="L38" s="3">
-        <v>263</v>
-      </c>
-      <c r="M38" s="3">
-        <v>216</v>
-      </c>
-      <c r="N38" s="3">
-        <v>214</v>
-      </c>
-      <c r="O38" s="3">
-        <v>206</v>
-      </c>
-      <c r="P38" s="3">
-        <v>217</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>230</v>
-      </c>
-      <c r="R38" s="3">
-        <v>214</v>
-      </c>
-      <c r="S38" s="3">
-        <v>217</v>
-      </c>
-      <c r="T38" s="3">
-        <v>180</v>
-      </c>
-      <c r="U38" s="3">
-        <v>167</v>
-      </c>
-      <c r="V38" s="3">
-        <v>151</v>
-      </c>
       <c r="W38" s="3">
-        <v>135</v>
+        <v>540</v>
       </c>
       <c r="X38" s="3">
-        <v>173</v>
+        <v>539</v>
       </c>
       <c r="Y38" s="3">
-        <v>186</v>
+        <v>449</v>
       </c>
       <c r="Z38" s="3">
-        <v>137</v>
+        <v>461</v>
       </c>
       <c r="AA38" s="3">
-        <v>120</v>
+        <v>438</v>
       </c>
       <c r="AB38" s="3">
-        <v>114</v>
+        <v>342</v>
       </c>
       <c r="AC38" s="3">
-        <v>117</v>
+        <v>295</v>
       </c>
       <c r="AD38" s="3">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="AE38" s="3">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="AF38" s="3">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AG38" s="3">
-        <v>92</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="6"/>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>104</v>
+      </c>
+      <c r="H39" s="3">
+        <v>85</v>
+      </c>
+      <c r="I39" s="3">
+        <v>53</v>
+      </c>
+      <c r="J39" s="3">
+        <v>61</v>
+      </c>
+      <c r="K39" s="3">
+        <v>54</v>
+      </c>
+      <c r="L39" s="3">
+        <v>82</v>
+      </c>
+      <c r="M39" s="3">
+        <v>80</v>
+      </c>
+      <c r="N39" s="3">
+        <v>93</v>
+      </c>
+      <c r="O39" s="3">
+        <v>96</v>
+      </c>
+      <c r="P39" s="3">
+        <v>56</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>71</v>
+      </c>
+      <c r="R39" s="3">
+        <v>112</v>
+      </c>
+      <c r="S39" s="3">
+        <v>67</v>
+      </c>
+      <c r="T39" s="3">
+        <v>56</v>
+      </c>
+      <c r="U39" s="3">
+        <v>45</v>
+      </c>
+      <c r="V39" s="3">
+        <v>67</v>
+      </c>
+      <c r="W39" s="3">
+        <v>77</v>
+      </c>
+      <c r="X39" s="3">
+        <v>62</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>70</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>70</v>
+      </c>
       <c r="AA39" s="3">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="AB39" s="3">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="AC39" s="3">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="AD39" s="3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AE39" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF39" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG39" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -5327,100 +5421,100 @@
         <v>71</v>
       </c>
       <c r="B40" s="3">
-        <v>651</v>
+        <v>127</v>
       </c>
       <c r="C40" s="3">
-        <v>684</v>
+        <v>123</v>
       </c>
       <c r="D40" s="3">
-        <v>645</v>
+        <v>102</v>
       </c>
       <c r="E40" s="3">
-        <v>646</v>
+        <v>110</v>
       </c>
       <c r="F40" s="3">
-        <v>599</v>
+        <v>109</v>
       </c>
       <c r="G40" s="3">
-        <v>561</v>
+        <v>76</v>
       </c>
       <c r="H40" s="3">
-        <v>589</v>
+        <v>86</v>
       </c>
       <c r="I40" s="3">
-        <v>593</v>
+        <v>82</v>
       </c>
       <c r="J40" s="3">
-        <v>604</v>
+        <v>87</v>
       </c>
       <c r="K40" s="3">
-        <v>616</v>
+        <v>89</v>
       </c>
       <c r="L40" s="3">
-        <v>490</v>
+        <v>66</v>
       </c>
       <c r="M40" s="3">
-        <v>414</v>
+        <v>68</v>
       </c>
       <c r="N40" s="3">
-        <v>408</v>
+        <v>59</v>
       </c>
       <c r="O40" s="3">
-        <v>358</v>
+        <v>75</v>
       </c>
       <c r="P40" s="3">
-        <v>341</v>
+        <v>68</v>
       </c>
       <c r="Q40" s="3">
-        <v>276</v>
+        <v>59</v>
       </c>
       <c r="R40" s="3">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="S40" s="3">
-        <v>326</v>
+        <v>57</v>
       </c>
       <c r="T40" s="3">
-        <v>272</v>
+        <v>38</v>
       </c>
       <c r="U40" s="3">
-        <v>364</v>
+        <v>41</v>
       </c>
       <c r="V40" s="3">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="W40" s="3">
-        <v>540</v>
+        <v>33</v>
       </c>
       <c r="X40" s="3">
-        <v>539</v>
+        <v>58</v>
       </c>
       <c r="Y40" s="3">
-        <v>449</v>
+        <v>50</v>
       </c>
       <c r="Z40" s="3">
-        <v>461</v>
+        <v>53</v>
       </c>
       <c r="AA40" s="3">
-        <v>438</v>
+        <v>47</v>
       </c>
       <c r="AB40" s="3">
-        <v>342</v>
+        <v>37</v>
       </c>
       <c r="AC40" s="3">
-        <v>295</v>
+        <v>26</v>
       </c>
       <c r="AD40" s="3">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="AE40" s="3">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="AF40" s="3">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="AG40" s="3">
-        <v>176</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -5428,100 +5522,100 @@
         <v>72</v>
       </c>
       <c r="B41" s="3">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G41" s="3">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="H41" s="3">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="I41" s="3">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J41" s="3">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K41" s="3">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="L41" s="3">
         <v>82</v>
       </c>
       <c r="M41" s="3">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="N41" s="3">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="O41" s="3">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="P41" s="3">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="Q41" s="3">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="R41" s="3">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="S41" s="3">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="T41" s="3">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="U41" s="3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="V41" s="3">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="W41" s="3">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="X41" s="3">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="Y41" s="3">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="Z41" s="3">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="AA41" s="3">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AB41" s="3">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AC41" s="3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AD41" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE41" s="3">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AF41" s="3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AG41" s="3">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -5529,100 +5623,100 @@
         <v>73</v>
       </c>
       <c r="B42" s="3">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="C42" s="3">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="D42" s="3">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="E42" s="3">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F42" s="3">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="G42" s="3">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H42" s="3">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="I42" s="3">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="J42" s="3">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="K42" s="3">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="L42" s="3">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="M42" s="3">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="N42" s="3">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="O42" s="3">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="P42" s="3">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="Q42" s="3">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="R42" s="3">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="S42" s="3">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="T42" s="3">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U42" s="3">
         <v>41</v>
       </c>
       <c r="V42" s="3">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="W42" s="3">
+        <v>32</v>
+      </c>
+      <c r="X42" s="3">
+        <v>46</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>43</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>50</v>
+      </c>
+      <c r="AA42" s="3">
         <v>33</v>
       </c>
-      <c r="X42" s="3">
-        <v>58</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>50</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>53</v>
-      </c>
-      <c r="AA42" s="3">
-        <v>47</v>
-      </c>
       <c r="AB42" s="3">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AC42" s="3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AD42" s="3">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="AE42" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AF42" s="3">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="AG42" s="3">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -5630,100 +5724,94 @@
         <v>74</v>
       </c>
       <c r="B43" s="3">
-        <v>59</v>
+        <v>662</v>
       </c>
       <c r="C43" s="3">
-        <v>51</v>
+        <v>660</v>
       </c>
       <c r="D43" s="3">
-        <v>42</v>
+        <v>510</v>
       </c>
       <c r="E43" s="3">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>61</v>
-      </c>
-      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>142</v>
+      </c>
+      <c r="P43" s="3">
+        <v>260</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>250</v>
+      </c>
+      <c r="R43" s="3">
+        <v>353</v>
+      </c>
+      <c r="S43" s="3">
+        <v>417</v>
+      </c>
+      <c r="T43" s="3">
+        <v>449</v>
+      </c>
+      <c r="U43" s="3">
+        <v>441</v>
+      </c>
+      <c r="V43" s="3">
+        <v>416</v>
+      </c>
+      <c r="W43" s="3">
+        <v>416</v>
+      </c>
+      <c r="X43" s="3">
+        <v>439</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>269</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>319</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>244</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>190</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>171</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>137</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>99</v>
+      </c>
+      <c r="AF43" s="3">
         <v>72</v>
       </c>
-      <c r="J43" s="3">
-        <v>66</v>
-      </c>
-      <c r="K43" s="3">
-        <v>67</v>
-      </c>
-      <c r="L43" s="3">
-        <v>82</v>
-      </c>
-      <c r="M43" s="3">
-        <v>44</v>
-      </c>
-      <c r="N43" s="3">
-        <v>31</v>
-      </c>
-      <c r="O43" s="3">
-        <v>29</v>
-      </c>
-      <c r="P43" s="3">
-        <v>31</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>25</v>
-      </c>
-      <c r="R43" s="3">
-        <v>29</v>
-      </c>
-      <c r="S43" s="3">
-        <v>36</v>
-      </c>
-      <c r="T43" s="3">
-        <v>30</v>
-      </c>
-      <c r="U43" s="3">
-        <v>32</v>
-      </c>
-      <c r="V43" s="3">
-        <v>29</v>
-      </c>
-      <c r="W43" s="3">
-        <v>31</v>
-      </c>
-      <c r="X43" s="3">
-        <v>37</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>39</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>31</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>27</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>35</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>24</v>
-      </c>
-      <c r="AD43" s="3">
-        <v>24</v>
-      </c>
-      <c r="AE43" s="3">
-        <v>16</v>
-      </c>
-      <c r="AF43" s="3">
-        <v>12</v>
-      </c>
       <c r="AG43" s="3">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -5731,100 +5819,100 @@
         <v>75</v>
       </c>
       <c r="B44" s="3">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="C44" s="3">
-        <v>67</v>
+        <v>269</v>
       </c>
       <c r="D44" s="3">
-        <v>67</v>
+        <v>298</v>
       </c>
       <c r="E44" s="3">
-        <v>63</v>
+        <v>294</v>
       </c>
       <c r="F44" s="3">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="G44" s="3">
-        <v>52</v>
+        <v>297</v>
       </c>
       <c r="H44" s="3">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c r="I44" s="3">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="J44" s="3">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="K44" s="3">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="L44" s="3">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="M44" s="3">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="N44" s="3">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="O44" s="3">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="P44" s="3">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="Q44" s="3">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="R44" s="3">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="S44" s="3">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="T44" s="3">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="U44" s="3">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="V44" s="3">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="W44" s="3">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="X44" s="3">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="Y44" s="3">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="Z44" s="3">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AA44" s="3">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="AB44" s="3">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="AC44" s="3">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="AD44" s="3">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="AE44" s="3">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="AF44" s="3">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="AG44" s="3">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
@@ -5832,94 +5920,100 @@
         <v>76</v>
       </c>
       <c r="B45" s="3">
-        <v>662</v>
+        <v>335</v>
       </c>
       <c r="C45" s="3">
-        <v>660</v>
+        <v>371</v>
       </c>
       <c r="D45" s="3">
-        <v>510</v>
+        <v>367</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="6"/>
+        <v>330</v>
+      </c>
+      <c r="I45" s="3">
+        <v>294</v>
+      </c>
+      <c r="J45" s="3">
+        <v>294</v>
+      </c>
+      <c r="K45" s="3">
+        <v>249</v>
+      </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="O45" s="3">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="P45" s="3">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="Q45" s="3">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="R45" s="3">
-        <v>353</v>
+        <v>231</v>
       </c>
       <c r="S45" s="3">
-        <v>417</v>
+        <v>227</v>
       </c>
       <c r="T45" s="3">
-        <v>449</v>
+        <v>239</v>
       </c>
       <c r="U45" s="3">
-        <v>441</v>
+        <v>190</v>
       </c>
       <c r="V45" s="3">
-        <v>416</v>
+        <v>174</v>
       </c>
       <c r="W45" s="3">
-        <v>416</v>
+        <v>186</v>
       </c>
       <c r="X45" s="3">
-        <v>439</v>
+        <v>194</v>
       </c>
       <c r="Y45" s="3">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="Z45" s="3">
-        <v>319</v>
+        <v>175</v>
       </c>
       <c r="AA45" s="3">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="AB45" s="3">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="AC45" s="3">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="AD45" s="3">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="AE45" s="3">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="AF45" s="3">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AG45" s="3">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
@@ -5927,100 +6021,100 @@
         <v>77</v>
       </c>
       <c r="B46" s="3">
-        <v>292</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="D46" s="3">
-        <v>298</v>
+        <v>72</v>
       </c>
       <c r="E46" s="3">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="F46" s="3">
-        <v>287</v>
+        <v>59</v>
       </c>
       <c r="G46" s="3">
-        <v>297</v>
+        <v>46</v>
       </c>
       <c r="H46" s="3">
-        <v>248</v>
+        <v>49</v>
       </c>
       <c r="I46" s="3">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="J46" s="3">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="K46" s="3">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="L46" s="3">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="M46" s="3">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="N46" s="3">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="O46" s="3">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="P46" s="3">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="Q46" s="3">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="R46" s="3">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="S46" s="3">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="T46" s="3">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="U46" s="3">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="V46" s="3">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="W46" s="3">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="X46" s="3">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="Y46" s="3">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="Z46" s="3">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AA46" s="3">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="AB46" s="3">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="AC46" s="3">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="AD46" s="3">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="AE46" s="3">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="AF46" s="3">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="AG46" s="3">
-        <v>78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
@@ -6028,100 +6122,100 @@
         <v>78</v>
       </c>
       <c r="B47" s="3">
-        <v>335</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3">
-        <v>371</v>
+        <v>53</v>
       </c>
       <c r="D47" s="3">
-        <v>367</v>
+        <v>58</v>
       </c>
       <c r="E47" s="3">
-        <v>378</v>
+        <v>60</v>
       </c>
       <c r="F47" s="3">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="G47" s="3">
-        <v>333</v>
+        <v>61</v>
       </c>
       <c r="H47" s="3">
-        <v>330</v>
+        <v>39</v>
       </c>
       <c r="I47" s="3">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="J47" s="3">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="K47" s="3">
-        <v>249</v>
+        <v>48</v>
       </c>
       <c r="L47" s="3">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="M47" s="3">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="N47" s="3">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="O47" s="3">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="P47" s="3">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="Q47" s="3">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="R47" s="3">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="S47" s="3">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="T47" s="3">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="U47" s="3">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="V47" s="3">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="W47" s="3">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="X47" s="3">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="Y47" s="3">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="Z47" s="3">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="AA47" s="3">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="AB47" s="3">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AC47" s="3">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="AD47" s="3">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="AE47" s="3">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="AF47" s="3">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="AG47" s="3">
-        <v>108</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
@@ -6129,100 +6223,100 @@
         <v>79</v>
       </c>
       <c r="B48" s="3">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="C48" s="3">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="D48" s="3">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="E48" s="3">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="F48" s="3">
-        <v>59</v>
+        <v>267</v>
       </c>
       <c r="G48" s="3">
+        <v>257</v>
+      </c>
+      <c r="H48" s="3">
+        <v>217</v>
+      </c>
+      <c r="I48" s="3">
+        <v>205</v>
+      </c>
+      <c r="J48" s="3">
+        <v>166</v>
+      </c>
+      <c r="K48" s="3">
+        <v>155</v>
+      </c>
+      <c r="L48" s="3">
+        <v>155</v>
+      </c>
+      <c r="M48" s="3">
+        <v>134</v>
+      </c>
+      <c r="N48" s="3">
+        <v>135</v>
+      </c>
+      <c r="O48" s="3">
+        <v>116</v>
+      </c>
+      <c r="P48" s="3">
+        <v>125</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>88</v>
+      </c>
+      <c r="R48" s="3">
+        <v>92</v>
+      </c>
+      <c r="S48" s="3">
+        <v>91</v>
+      </c>
+      <c r="T48" s="3">
+        <v>88</v>
+      </c>
+      <c r="U48" s="3">
+        <v>79</v>
+      </c>
+      <c r="V48" s="3">
+        <v>74</v>
+      </c>
+      <c r="W48" s="3">
+        <v>82</v>
+      </c>
+      <c r="X48" s="3">
+        <v>98</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>111</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>97</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>81</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>85</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>61</v>
+      </c>
+      <c r="AD48" s="3">
         <v>46</v>
       </c>
-      <c r="H48" s="3">
+      <c r="AE48" s="3">
         <v>49</v>
       </c>
-      <c r="I48" s="3">
+      <c r="AF48" s="3">
+        <v>40</v>
+      </c>
+      <c r="AG48" s="3">
         <v>41</v>
-      </c>
-      <c r="J48" s="3">
-        <v>44</v>
-      </c>
-      <c r="K48" s="3">
-        <v>41</v>
-      </c>
-      <c r="L48" s="3">
-        <v>39</v>
-      </c>
-      <c r="M48" s="3">
-        <v>44</v>
-      </c>
-      <c r="N48" s="3">
-        <v>48</v>
-      </c>
-      <c r="O48" s="3">
-        <v>41</v>
-      </c>
-      <c r="P48" s="3">
-        <v>48</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>34</v>
-      </c>
-      <c r="R48" s="3">
-        <v>41</v>
-      </c>
-      <c r="S48" s="3">
-        <v>34</v>
-      </c>
-      <c r="T48" s="3">
-        <v>27</v>
-      </c>
-      <c r="U48" s="3">
-        <v>29</v>
-      </c>
-      <c r="V48" s="3">
-        <v>23</v>
-      </c>
-      <c r="W48" s="3">
-        <v>22</v>
-      </c>
-      <c r="X48" s="3">
-        <v>37</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>38</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>38</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>31</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>25</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>13</v>
-      </c>
-      <c r="AD48" s="3">
-        <v>23</v>
-      </c>
-      <c r="AE48" s="3">
-        <v>6</v>
-      </c>
-      <c r="AF48" s="3">
-        <v>11</v>
-      </c>
-      <c r="AG48" s="3">
-        <v>9</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -6230,100 +6324,100 @@
         <v>80</v>
       </c>
       <c r="B49" s="3">
+        <v>124</v>
+      </c>
+      <c r="C49" s="3">
+        <v>134</v>
+      </c>
+      <c r="D49" s="3">
+        <v>131</v>
+      </c>
+      <c r="E49" s="3">
+        <v>130</v>
+      </c>
+      <c r="F49" s="3">
+        <v>117</v>
+      </c>
+      <c r="G49" s="3">
+        <v>97</v>
+      </c>
+      <c r="H49" s="3">
+        <v>79</v>
+      </c>
+      <c r="I49" s="3">
+        <v>68</v>
+      </c>
+      <c r="J49" s="3">
+        <v>80</v>
+      </c>
+      <c r="K49" s="3">
+        <v>89</v>
+      </c>
+      <c r="L49" s="3">
+        <v>77</v>
+      </c>
+      <c r="M49" s="3">
+        <v>73</v>
+      </c>
+      <c r="N49" s="3">
+        <v>94</v>
+      </c>
+      <c r="O49" s="3">
+        <v>68</v>
+      </c>
+      <c r="P49" s="3">
+        <v>72</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>72</v>
+      </c>
+      <c r="R49" s="3">
+        <v>57</v>
+      </c>
+      <c r="S49" s="3">
         <v>54</v>
       </c>
-      <c r="C49" s="3">
-        <v>53</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="T49" s="3">
+        <v>73</v>
+      </c>
+      <c r="U49" s="3">
         <v>58</v>
       </c>
-      <c r="E49" s="3">
-        <v>60</v>
-      </c>
-      <c r="F49" s="3">
-        <v>43</v>
-      </c>
-      <c r="G49" s="3">
-        <v>61</v>
-      </c>
-      <c r="H49" s="3">
-        <v>39</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="V49" s="3">
+        <v>55</v>
+      </c>
+      <c r="W49" s="3">
+        <v>58</v>
+      </c>
+      <c r="X49" s="3">
+        <v>65</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>84</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>89</v>
+      </c>
+      <c r="AA49" s="3">
         <v>49</v>
       </c>
-      <c r="J49" s="3">
-        <v>44</v>
-      </c>
-      <c r="K49" s="3">
-        <v>48</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="AB49" s="3">
+        <v>54</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>27</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>29</v>
+      </c>
+      <c r="AF49" s="3">
         <v>23</v>
       </c>
-      <c r="M49" s="3">
+      <c r="AG49" s="3">
         <v>31</v>
-      </c>
-      <c r="N49" s="3">
-        <v>22</v>
-      </c>
-      <c r="O49" s="3">
-        <v>29</v>
-      </c>
-      <c r="P49" s="3">
-        <v>30</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>30</v>
-      </c>
-      <c r="R49" s="3">
-        <v>18</v>
-      </c>
-      <c r="S49" s="3">
-        <v>17</v>
-      </c>
-      <c r="T49" s="3">
-        <v>13</v>
-      </c>
-      <c r="U49" s="3">
-        <v>26</v>
-      </c>
-      <c r="V49" s="3">
-        <v>17</v>
-      </c>
-      <c r="W49" s="3">
-        <v>19</v>
-      </c>
-      <c r="X49" s="3">
-        <v>21</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>19</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>15</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>16</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>17</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>15</v>
-      </c>
-      <c r="AD49" s="3">
-        <v>3</v>
-      </c>
-      <c r="AE49" s="3">
-        <v>10</v>
-      </c>
-      <c r="AF49" s="3">
-        <v>8</v>
-      </c>
-      <c r="AG49" s="3">
-        <v>9</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
@@ -6331,100 +6425,100 @@
         <v>81</v>
       </c>
       <c r="B50" s="3">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="C50" s="3">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="D50" s="3">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="E50" s="3">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c r="F50" s="3">
-        <v>267</v>
+        <v>100</v>
       </c>
       <c r="G50" s="3">
-        <v>257</v>
+        <v>112</v>
       </c>
       <c r="H50" s="3">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="I50" s="3">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="J50" s="3">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="K50" s="3">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="L50" s="3">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="M50" s="3">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="N50" s="3">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="O50" s="3">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="P50" s="3">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="Q50" s="3">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="R50" s="3">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="S50" s="3">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="T50" s="3">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="U50" s="3">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="V50" s="3">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="W50" s="3">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="X50" s="3">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="Y50" s="3">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="Z50" s="3">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AA50" s="3">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="AB50" s="3">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="AC50" s="3">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AD50" s="3">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="AE50" s="3">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="AF50" s="3">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="AG50" s="3">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
@@ -6432,100 +6526,100 @@
         <v>82</v>
       </c>
       <c r="B51" s="3">
+        <v>196</v>
+      </c>
+      <c r="C51" s="3">
+        <v>210</v>
+      </c>
+      <c r="D51" s="3">
+        <v>231</v>
+      </c>
+      <c r="E51" s="3">
+        <v>211</v>
+      </c>
+      <c r="F51" s="3">
+        <v>183</v>
+      </c>
+      <c r="G51" s="3">
+        <v>161</v>
+      </c>
+      <c r="H51" s="3">
+        <v>195</v>
+      </c>
+      <c r="I51" s="3">
+        <v>168</v>
+      </c>
+      <c r="J51" s="3">
+        <v>153</v>
+      </c>
+      <c r="K51" s="3">
+        <v>185</v>
+      </c>
+      <c r="L51" s="3">
+        <v>165</v>
+      </c>
+      <c r="M51" s="3">
+        <v>133</v>
+      </c>
+      <c r="N51" s="3">
+        <v>148</v>
+      </c>
+      <c r="O51" s="3">
+        <v>142</v>
+      </c>
+      <c r="P51" s="3">
+        <v>115</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>106</v>
+      </c>
+      <c r="R51" s="3">
         <v>124</v>
       </c>
-      <c r="C51" s="3">
-        <v>134</v>
-      </c>
-      <c r="D51" s="3">
-        <v>131</v>
-      </c>
-      <c r="E51" s="3">
-        <v>130</v>
-      </c>
-      <c r="F51" s="3">
-        <v>117</v>
-      </c>
-      <c r="G51" s="3">
-        <v>97</v>
-      </c>
-      <c r="H51" s="3">
-        <v>79</v>
-      </c>
-      <c r="I51" s="3">
-        <v>68</v>
-      </c>
-      <c r="J51" s="3">
-        <v>80</v>
-      </c>
-      <c r="K51" s="3">
-        <v>89</v>
-      </c>
-      <c r="L51" s="3">
-        <v>77</v>
-      </c>
-      <c r="M51" s="3">
+      <c r="S51" s="3">
+        <v>139</v>
+      </c>
+      <c r="T51" s="3">
+        <v>125</v>
+      </c>
+      <c r="U51" s="3">
+        <v>100</v>
+      </c>
+      <c r="V51" s="3">
+        <v>123</v>
+      </c>
+      <c r="W51" s="3">
+        <v>107</v>
+      </c>
+      <c r="X51" s="3">
+        <v>105</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>105</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>107</v>
+      </c>
+      <c r="AA51" s="3">
         <v>73</v>
       </c>
-      <c r="N51" s="3">
-        <v>94</v>
-      </c>
-      <c r="O51" s="3">
-        <v>68</v>
-      </c>
-      <c r="P51" s="3">
-        <v>72</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>72</v>
-      </c>
-      <c r="R51" s="3">
-        <v>57</v>
-      </c>
-      <c r="S51" s="3">
-        <v>54</v>
-      </c>
-      <c r="T51" s="3">
-        <v>73</v>
-      </c>
-      <c r="U51" s="3">
-        <v>58</v>
-      </c>
-      <c r="V51" s="3">
-        <v>55</v>
-      </c>
-      <c r="W51" s="3">
-        <v>58</v>
-      </c>
-      <c r="X51" s="3">
-        <v>65</v>
-      </c>
-      <c r="Y51" s="3">
-        <v>84</v>
-      </c>
-      <c r="Z51" s="3">
-        <v>89</v>
-      </c>
-      <c r="AA51" s="3">
-        <v>49</v>
-      </c>
       <c r="AB51" s="3">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="AC51" s="3">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AD51" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE51" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF51" s="3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AG51" s="3">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
@@ -6533,100 +6627,100 @@
         <v>83</v>
       </c>
       <c r="B52" s="3">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C52" s="3">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D52" s="3">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E52" s="3">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G52" s="3">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="H52" s="3">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I52" s="3">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J52" s="3">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="K52" s="3">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="L52" s="3">
+        <v>61</v>
+      </c>
+      <c r="M52" s="3">
+        <v>61</v>
+      </c>
+      <c r="N52" s="3">
+        <v>44</v>
+      </c>
+      <c r="O52" s="3">
         <v>52</v>
       </c>
-      <c r="M52" s="3">
-        <v>63</v>
-      </c>
-      <c r="N52" s="3">
-        <v>56</v>
-      </c>
-      <c r="O52" s="3">
-        <v>48</v>
-      </c>
       <c r="P52" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q52" s="3">
+        <v>39</v>
+      </c>
+      <c r="R52" s="3">
+        <v>52</v>
+      </c>
+      <c r="S52" s="3">
+        <v>55</v>
+      </c>
+      <c r="T52" s="3">
+        <v>49</v>
+      </c>
+      <c r="U52" s="3">
         <v>43</v>
       </c>
-      <c r="R52" s="3">
-        <v>54</v>
-      </c>
-      <c r="S52" s="3">
-        <v>43</v>
-      </c>
-      <c r="T52" s="3">
-        <v>37</v>
-      </c>
-      <c r="U52" s="3">
-        <v>46</v>
-      </c>
       <c r="V52" s="3">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W52" s="3">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="X52" s="3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y52" s="3">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="Z52" s="3">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AA52" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB52" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AC52" s="3">
         <v>17</v>
       </c>
       <c r="AD52" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE52" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF52" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG52" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
@@ -6634,100 +6728,100 @@
         <v>84</v>
       </c>
       <c r="B53" s="3">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="C53" s="3">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="D53" s="3">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="E53" s="3">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="F53" s="3">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="G53" s="3">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="H53" s="3">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="I53" s="3">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="J53" s="3">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="K53" s="3">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="L53" s="3">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="M53" s="3">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="N53" s="3">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="O53" s="3">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="P53" s="3">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="Q53" s="3">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="R53" s="3">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="S53" s="3">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="T53" s="3">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="U53" s="3">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="V53" s="3">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="W53" s="3">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="X53" s="3">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="Y53" s="3">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="Z53" s="3">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="AA53" s="3">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB53" s="3">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="AC53" s="3">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AD53" s="3">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="AE53" s="3">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AF53" s="3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AG53" s="3">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
@@ -6735,100 +6829,100 @@
         <v>85</v>
       </c>
       <c r="B54" s="3">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="C54" s="3">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="D54" s="3">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="E54" s="3">
-        <v>104</v>
+        <v>247</v>
       </c>
       <c r="F54" s="3">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="G54" s="3">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="H54" s="3">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="I54" s="3">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="J54" s="3">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="K54" s="3">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="L54" s="3">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="M54" s="3">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="N54" s="3">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="O54" s="3">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="P54" s="3">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="Q54" s="3">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="R54" s="3">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="S54" s="3">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="T54" s="3">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="U54" s="3">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="V54" s="3">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="W54" s="3">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="X54" s="3">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="Y54" s="3">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="Z54" s="3">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="AA54" s="3">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="AB54" s="3">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="AC54" s="3">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="AD54" s="3">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="AE54" s="3">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="AF54" s="3">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="AG54" s="3">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
@@ -6836,100 +6930,100 @@
         <v>86</v>
       </c>
       <c r="B55" s="3">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="C55" s="3">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="D55" s="3">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="E55" s="3">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="F55" s="3">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="G55" s="3">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="H55" s="3">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="I55" s="3">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="J55" s="3">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="K55" s="3">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="L55" s="3">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="M55" s="3">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="N55" s="3">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="O55" s="3">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="P55" s="3">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="Q55" s="3">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="R55" s="3">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="S55" s="3">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="T55" s="3">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U55" s="3">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="V55" s="3">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="W55" s="3">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="X55" s="3">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="Y55" s="3">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="Z55" s="3">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="AA55" s="3">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="AB55" s="3">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AC55" s="3">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="AD55" s="3">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="AE55" s="3">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="AF55" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AG55" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -6937,100 +7031,100 @@
         <v>87</v>
       </c>
       <c r="B56" s="3">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="C56" s="3">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c r="D56" s="3">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="E56" s="3">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="F56" s="3">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="G56" s="3">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="H56" s="3">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="I56" s="3">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="J56" s="3">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="K56" s="3">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="L56" s="3">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="M56" s="3">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="N56" s="3">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="O56" s="3">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="P56" s="3">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="Q56" s="3">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="R56" s="3">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="S56" s="3">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="T56" s="3">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="U56" s="3">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="V56" s="3">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="W56" s="3">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="X56" s="3">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="Y56" s="3">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="Z56" s="3">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="AA56" s="3">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="AB56" s="3">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="AC56" s="3">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AD56" s="3">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="AE56" s="3">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AF56" s="3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AG56" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
@@ -7038,100 +7132,100 @@
         <v>88</v>
       </c>
       <c r="B57" s="3">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="C57" s="3">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="D57" s="3">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="E57" s="3">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="F57" s="3">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="G57" s="3">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="H57" s="3">
+        <v>189</v>
+      </c>
+      <c r="I57" s="3">
+        <v>145</v>
+      </c>
+      <c r="J57" s="3">
+        <v>141</v>
+      </c>
+      <c r="K57" s="3">
+        <v>114</v>
+      </c>
+      <c r="L57" s="3">
+        <v>129</v>
+      </c>
+      <c r="M57" s="3">
+        <v>107</v>
+      </c>
+      <c r="N57" s="3">
+        <v>91</v>
+      </c>
+      <c r="O57" s="3">
+        <v>95</v>
+      </c>
+      <c r="P57" s="3">
+        <v>76</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>71</v>
+      </c>
+      <c r="R57" s="3">
+        <v>64</v>
+      </c>
+      <c r="S57" s="3">
+        <v>70</v>
+      </c>
+      <c r="T57" s="3">
+        <v>64</v>
+      </c>
+      <c r="U57" s="3">
         <v>66</v>
       </c>
-      <c r="I57" s="3">
-        <v>69</v>
-      </c>
-      <c r="J57" s="3">
-        <v>63</v>
-      </c>
-      <c r="K57" s="3">
-        <v>65</v>
-      </c>
-      <c r="L57" s="3">
-        <v>46</v>
-      </c>
-      <c r="M57" s="3">
-        <v>60</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="V57" s="3">
+        <v>53</v>
+      </c>
+      <c r="W57" s="3">
+        <v>59</v>
+      </c>
+      <c r="X57" s="3">
+        <v>67</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>67</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>67</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>61</v>
+      </c>
+      <c r="AB57" s="3">
         <v>58</v>
       </c>
-      <c r="O57" s="3">
-        <v>71</v>
-      </c>
-      <c r="P57" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>44</v>
-      </c>
-      <c r="R57" s="3">
-        <v>42</v>
-      </c>
-      <c r="S57" s="3">
-        <v>50</v>
-      </c>
-      <c r="T57" s="3">
-        <v>38</v>
-      </c>
-      <c r="U57" s="3">
-        <v>27</v>
-      </c>
-      <c r="V57" s="3">
-        <v>42</v>
-      </c>
-      <c r="W57" s="3">
-        <v>27</v>
-      </c>
-      <c r="X57" s="3">
-        <v>36</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>32</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>27</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>19</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>20</v>
-      </c>
       <c r="AC57" s="3">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="AD57" s="3">
+        <v>28</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>24</v>
+      </c>
+      <c r="AF57" s="3">
         <v>16</v>
       </c>
-      <c r="AE57" s="3">
-        <v>22</v>
-      </c>
-      <c r="AF57" s="3">
-        <v>18</v>
-      </c>
       <c r="AG57" s="3">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
@@ -7139,100 +7233,100 @@
         <v>89</v>
       </c>
       <c r="B58" s="3">
+        <v>112</v>
+      </c>
+      <c r="C58" s="3">
         <v>132</v>
       </c>
-      <c r="C58" s="3">
-        <v>127</v>
-      </c>
       <c r="D58" s="3">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E58" s="3">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G58" s="3">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="H58" s="3">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I58" s="3">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J58" s="3">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="K58" s="3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L58" s="3">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M58" s="3">
+        <v>57</v>
+      </c>
+      <c r="N58" s="3">
+        <v>54</v>
+      </c>
+      <c r="O58" s="3">
+        <v>53</v>
+      </c>
+      <c r="P58" s="3">
         <v>52</v>
       </c>
-      <c r="N58" s="3">
-        <v>46</v>
-      </c>
-      <c r="O58" s="3">
-        <v>57</v>
-      </c>
-      <c r="P58" s="3">
-        <v>51</v>
-      </c>
       <c r="Q58" s="3">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R58" s="3">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="S58" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="T58" s="3">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="U58" s="3">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="V58" s="3">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="W58" s="3">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="X58" s="3">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="Y58" s="3">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="Z58" s="3">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="AA58" s="3">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AB58" s="3">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="AC58" s="3">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="AD58" s="3">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AE58" s="3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AF58" s="3">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AG58" s="3">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
@@ -7240,100 +7334,100 @@
         <v>90</v>
       </c>
       <c r="B59" s="3">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C59" s="3">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="D59" s="3">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E59" s="3">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="F59" s="3">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="G59" s="3">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="H59" s="3">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="I59" s="3">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="J59" s="3">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="K59" s="3">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="L59" s="3">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="M59" s="3">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="N59" s="3">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="O59" s="3">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="P59" s="3">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q59" s="3">
+        <v>65</v>
+      </c>
+      <c r="R59" s="3">
+        <v>80</v>
+      </c>
+      <c r="S59" s="3">
+        <v>69</v>
+      </c>
+      <c r="T59" s="3">
         <v>71</v>
       </c>
-      <c r="R59" s="3">
-        <v>64</v>
-      </c>
-      <c r="S59" s="3">
-        <v>70</v>
-      </c>
-      <c r="T59" s="3">
-        <v>64</v>
-      </c>
       <c r="U59" s="3">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="V59" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W59" s="3">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="X59" s="3">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="Y59" s="3">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="Z59" s="3">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="AA59" s="3">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="AB59" s="3">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="AC59" s="3">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="AD59" s="3">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE59" s="3">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AF59" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG59" s="3">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
@@ -7341,100 +7435,100 @@
         <v>91</v>
       </c>
       <c r="B60" s="3">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="C60" s="3">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="D60" s="3">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="E60" s="3">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="F60" s="3">
+        <v>175</v>
+      </c>
+      <c r="G60" s="3">
+        <v>123</v>
+      </c>
+      <c r="H60" s="3">
+        <v>146</v>
+      </c>
+      <c r="I60" s="3">
+        <v>114</v>
+      </c>
+      <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
+        <v>124</v>
+      </c>
+      <c r="L60" s="3">
+        <v>94</v>
+      </c>
+      <c r="M60" s="3">
         <v>104</v>
       </c>
-      <c r="G60" s="3">
-        <v>96</v>
-      </c>
-      <c r="H60" s="3">
-        <v>83</v>
-      </c>
-      <c r="I60" s="3">
-        <v>68</v>
-      </c>
-      <c r="J60" s="3">
-        <v>52</v>
-      </c>
-      <c r="K60" s="3">
-        <v>62</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
+        <v>72</v>
+      </c>
+      <c r="O60" s="3">
+        <v>93</v>
+      </c>
+      <c r="P60" s="3">
+        <v>85</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>108</v>
+      </c>
+      <c r="R60" s="3">
+        <v>80</v>
+      </c>
+      <c r="S60" s="3">
+        <v>92</v>
+      </c>
+      <c r="T60" s="3">
+        <v>109</v>
+      </c>
+      <c r="U60" s="3">
+        <v>78</v>
+      </c>
+      <c r="V60" s="3">
+        <v>76</v>
+      </c>
+      <c r="W60" s="3">
+        <v>66</v>
+      </c>
+      <c r="X60" s="3">
+        <v>94</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>84</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>71</v>
+      </c>
+      <c r="AA60" s="3">
         <v>56</v>
       </c>
-      <c r="M60" s="3">
+      <c r="AB60" s="3">
+        <v>71</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>53</v>
+      </c>
+      <c r="AD60" s="3">
         <v>57</v>
       </c>
-      <c r="N60" s="3">
-        <v>54</v>
-      </c>
-      <c r="O60" s="3">
-        <v>53</v>
-      </c>
-      <c r="P60" s="3">
-        <v>52</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>43</v>
-      </c>
-      <c r="R60" s="3">
-        <v>39</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="AE60" s="3">
         <v>32</v>
       </c>
-      <c r="T60" s="3">
-        <v>43</v>
-      </c>
-      <c r="U60" s="3">
-        <v>30</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="AF60" s="3">
+        <v>38</v>
+      </c>
+      <c r="AG60" s="3">
         <v>29</v>
-      </c>
-      <c r="W60" s="3">
-        <v>27</v>
-      </c>
-      <c r="X60" s="3">
-        <v>28</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>27</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>32</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>26</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>26</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>16</v>
-      </c>
-      <c r="AD60" s="3">
-        <v>12</v>
-      </c>
-      <c r="AE60" s="3">
-        <v>13</v>
-      </c>
-      <c r="AF60" s="3">
-        <v>11</v>
-      </c>
-      <c r="AG60" s="3">
-        <v>7</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
@@ -7442,100 +7536,100 @@
         <v>92</v>
       </c>
       <c r="B61" s="3">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="C61" s="3">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="D61" s="3">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="E61" s="3">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="F61" s="3">
+        <v>176</v>
+      </c>
+      <c r="G61" s="3">
+        <v>200</v>
+      </c>
+      <c r="H61" s="3">
+        <v>147</v>
+      </c>
+      <c r="I61" s="3">
+        <v>184</v>
+      </c>
+      <c r="J61" s="3">
+        <v>172</v>
+      </c>
+      <c r="K61" s="3">
+        <v>138</v>
+      </c>
+      <c r="L61" s="3">
+        <v>140</v>
+      </c>
+      <c r="M61" s="3">
+        <v>142</v>
+      </c>
+      <c r="N61" s="3">
+        <v>145</v>
+      </c>
+      <c r="O61" s="3">
+        <v>122</v>
+      </c>
+      <c r="P61" s="3">
+        <v>142</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>112</v>
+      </c>
+      <c r="R61" s="3">
         <v>121</v>
       </c>
-      <c r="G61" s="3">
+      <c r="S61" s="3">
+        <v>121</v>
+      </c>
+      <c r="T61" s="3">
+        <v>132</v>
+      </c>
+      <c r="U61" s="3">
+        <v>120</v>
+      </c>
+      <c r="V61" s="3">
+        <v>128</v>
+      </c>
+      <c r="W61" s="3">
         <v>123</v>
       </c>
-      <c r="H61" s="3">
-        <v>96</v>
-      </c>
-      <c r="I61" s="3">
-        <v>77</v>
-      </c>
-      <c r="J61" s="3">
-        <v>83</v>
-      </c>
-      <c r="K61" s="3">
-        <v>89</v>
-      </c>
-      <c r="L61" s="3">
-        <v>68</v>
-      </c>
-      <c r="M61" s="3">
-        <v>68</v>
-      </c>
-      <c r="N61" s="3">
-        <v>66</v>
-      </c>
-      <c r="O61" s="3">
-        <v>59</v>
-      </c>
-      <c r="P61" s="3">
-        <v>75</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>65</v>
-      </c>
-      <c r="R61" s="3">
-        <v>80</v>
-      </c>
-      <c r="S61" s="3">
-        <v>69</v>
-      </c>
-      <c r="T61" s="3">
-        <v>71</v>
-      </c>
-      <c r="U61" s="3">
-        <v>57</v>
-      </c>
-      <c r="V61" s="3">
-        <v>52</v>
-      </c>
-      <c r="W61" s="3">
-        <v>52</v>
-      </c>
       <c r="X61" s="3">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="Y61" s="3">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="Z61" s="3">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="AA61" s="3">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="AB61" s="3">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="AC61" s="3">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="AD61" s="3">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="AE61" s="3">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AF61" s="3">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AG61" s="3">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
@@ -7543,456 +7637,456 @@
         <v>93</v>
       </c>
       <c r="B62" s="3">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C62" s="3">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="D62" s="3">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="E62" s="3">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="F62" s="3">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="G62" s="3">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="H62" s="3">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="I62" s="3">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="K62" s="3">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="L62" s="3">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="M62" s="3">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="N62" s="3">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="O62" s="3">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="P62" s="3">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="Q62" s="3">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R62" s="3">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="S62" s="3">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="T62" s="3">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="U62" s="3">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="V62" s="3">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="W62" s="3">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="X62" s="3">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="Y62" s="3">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="Z62" s="3">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="AA62" s="3">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="AB62" s="3">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="AC62" s="3">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="AD62" s="3">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="AE62" s="3">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AF62" s="3">
-        <v>38</v>
-      </c>
-      <c r="AG62" s="3">
-        <v>29</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AG62" s="4"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" t="s" s="2">
         <v>94</v>
       </c>
       <c r="B63" s="3">
-        <v>268</v>
+        <v>58</v>
       </c>
       <c r="C63" s="3">
-        <v>267</v>
+        <v>48</v>
       </c>
       <c r="D63" s="3">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="E63" s="3">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="F63" s="3">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="G63" s="3">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="H63" s="3">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="I63" s="3">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="J63" s="3">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="K63" s="3">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="L63" s="3">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="M63" s="3">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="N63" s="3">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="O63" s="3">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="P63" s="3">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="Q63" s="3">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="R63" s="3">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="S63" s="3">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="T63" s="3">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="U63" s="3">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="V63" s="3">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="W63" s="3">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="X63" s="3">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="Y63" s="3">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="Z63" s="3">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="AA63" s="3">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AB63" s="3">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="AC63" s="3">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="AD63" s="3">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="AE63" s="3">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AF63" s="3">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="AG63" s="3">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="3">
+        <v>75</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>62</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>62</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>46</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>41</v>
+      </c>
+      <c r="AD64" s="3">
         <v>44</v>
       </c>
-      <c r="C64" s="3">
-        <v>44</v>
-      </c>
-      <c r="D64" s="3">
-        <v>40</v>
-      </c>
-      <c r="E64" s="3">
-        <v>46</v>
-      </c>
-      <c r="F64" s="3">
-        <v>25</v>
-      </c>
-      <c r="G64" s="3">
-        <v>47</v>
-      </c>
-      <c r="H64" s="3">
-        <v>31</v>
-      </c>
-      <c r="I64" s="3">
-        <v>34</v>
-      </c>
-      <c r="J64" s="3">
-        <v>33</v>
-      </c>
-      <c r="K64" s="3">
-        <v>20</v>
-      </c>
-      <c r="L64" s="3">
-        <v>18</v>
-      </c>
-      <c r="M64" s="3">
-        <v>18</v>
-      </c>
-      <c r="N64" s="3">
-        <v>19</v>
-      </c>
-      <c r="O64" s="3">
-        <v>15</v>
-      </c>
-      <c r="P64" s="3">
-        <v>22</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>14</v>
-      </c>
-      <c r="R64" s="3">
-        <v>18</v>
-      </c>
-      <c r="S64" s="3">
-        <v>21</v>
-      </c>
-      <c r="T64" s="3">
-        <v>19</v>
-      </c>
-      <c r="U64" s="3">
-        <v>14</v>
-      </c>
-      <c r="V64" s="3">
-        <v>12</v>
-      </c>
-      <c r="W64" s="3">
-        <v>22</v>
-      </c>
-      <c r="X64" s="3">
-        <v>15</v>
-      </c>
-      <c r="Y64" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z64" s="3">
-        <v>10</v>
-      </c>
-      <c r="AA64" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB64" s="3">
-        <v>8</v>
-      </c>
-      <c r="AC64" s="3">
-        <v>15</v>
-      </c>
-      <c r="AD64" s="3">
-        <v>5</v>
-      </c>
       <c r="AE64" s="3">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="AF64" s="3">
-        <v>5</v>
-      </c>
-      <c r="AG64" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="AG64" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" t="s" s="2">
         <v>96</v>
       </c>
       <c r="B65" s="3">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="C65" s="3">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="D65" s="3">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="E65" s="3">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="F65" s="3">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="G65" s="3">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="H65" s="3">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="I65" s="3">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="J65" s="3">
+        <v>146</v>
+      </c>
+      <c r="K65" s="3">
+        <v>132</v>
+      </c>
+      <c r="L65" s="3">
+        <v>130</v>
+      </c>
+      <c r="M65" s="3">
+        <v>125</v>
+      </c>
+      <c r="N65" s="3">
+        <v>128</v>
+      </c>
+      <c r="O65" s="3">
+        <v>125</v>
+      </c>
+      <c r="P65" s="3">
+        <v>133</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>99</v>
+      </c>
+      <c r="R65" s="3">
+        <v>78</v>
+      </c>
+      <c r="S65" s="3">
+        <v>96</v>
+      </c>
+      <c r="T65" s="3">
+        <v>105</v>
+      </c>
+      <c r="U65" s="3">
+        <v>113</v>
+      </c>
+      <c r="V65" s="3">
+        <v>106</v>
+      </c>
+      <c r="W65" s="3">
+        <v>105</v>
+      </c>
+      <c r="X65" s="3">
+        <v>107</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>116</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>88</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>75</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>71</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>60</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>55</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>35</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>31</v>
+      </c>
+      <c r="AG65" s="3">
         <v>41</v>
-      </c>
-      <c r="K65" s="3">
-        <v>33</v>
-      </c>
-      <c r="L65" s="3">
-        <v>39</v>
-      </c>
-      <c r="M65" s="3">
-        <v>42</v>
-      </c>
-      <c r="N65" s="3">
-        <v>43</v>
-      </c>
-      <c r="O65" s="3">
-        <v>36</v>
-      </c>
-      <c r="P65" s="3">
-        <v>44</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>31</v>
-      </c>
-      <c r="R65" s="3">
-        <v>45</v>
-      </c>
-      <c r="S65" s="3">
-        <v>39</v>
-      </c>
-      <c r="T65" s="3">
-        <v>44</v>
-      </c>
-      <c r="U65" s="3">
-        <v>47</v>
-      </c>
-      <c r="V65" s="3">
-        <v>58</v>
-      </c>
-      <c r="W65" s="3">
-        <v>46</v>
-      </c>
-      <c r="X65" s="3">
-        <v>35</v>
-      </c>
-      <c r="Y65" s="3">
-        <v>40</v>
-      </c>
-      <c r="Z65" s="3">
-        <v>25</v>
-      </c>
-      <c r="AA65" s="3">
-        <v>22</v>
-      </c>
-      <c r="AB65" s="3">
-        <v>16</v>
-      </c>
-      <c r="AC65" s="3">
-        <v>22</v>
-      </c>
-      <c r="AD65" s="3">
-        <v>13</v>
-      </c>
-      <c r="AE65" s="3">
-        <v>17</v>
-      </c>
-      <c r="AF65" s="3">
-        <v>10</v>
-      </c>
-      <c r="AG65" s="3">
-        <v>16</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="6"/>
+      <c r="B66" s="3">
+        <v>85</v>
+      </c>
+      <c r="C66" s="3">
+        <v>57</v>
+      </c>
+      <c r="D66" s="3">
+        <v>66</v>
+      </c>
+      <c r="E66" s="3">
+        <v>60</v>
+      </c>
+      <c r="F66" s="3">
+        <v>59</v>
+      </c>
+      <c r="G66" s="3">
+        <v>57</v>
+      </c>
+      <c r="H66" s="3">
+        <v>62</v>
+      </c>
+      <c r="I66" s="3">
+        <v>48</v>
+      </c>
+      <c r="J66" s="3">
+        <v>53</v>
+      </c>
+      <c r="K66" s="3">
+        <v>53</v>
+      </c>
+      <c r="L66" s="3">
+        <v>50</v>
+      </c>
+      <c r="M66" s="3">
+        <v>46</v>
+      </c>
+      <c r="N66" s="3">
+        <v>49</v>
+      </c>
+      <c r="O66" s="3">
+        <v>58</v>
+      </c>
+      <c r="P66" s="3">
+        <v>48</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>36</v>
+      </c>
+      <c r="R66" s="3">
+        <v>37</v>
+      </c>
+      <c r="S66" s="3">
+        <v>34</v>
+      </c>
+      <c r="T66" s="3">
+        <v>37</v>
+      </c>
+      <c r="U66" s="3">
+        <v>29</v>
+      </c>
+      <c r="V66" s="3">
+        <v>32</v>
+      </c>
+      <c r="W66" s="3">
+        <v>36</v>
+      </c>
+      <c r="X66" s="3">
+        <v>47</v>
+      </c>
       <c r="Y66" s="3">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Z66" s="3">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="AA66" s="3">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="AB66" s="3">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AC66" s="3">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AD66" s="3">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="AE66" s="3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AF66" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG66" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
@@ -8000,100 +8094,100 @@
         <v>98</v>
       </c>
       <c r="B67" s="3">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="C67" s="3">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="D67" s="3">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E67" s="3">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="F67" s="3">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="G67" s="3">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="H67" s="3">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="I67" s="3">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="J67" s="3">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="K67" s="3">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="L67" s="3">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="M67" s="3">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="N67" s="3">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="O67" s="3">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="P67" s="3">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="Q67" s="3">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="R67" s="3">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="S67" s="3">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="T67" s="3">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="U67" s="3">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="V67" s="3">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="W67" s="3">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="X67" s="3">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="Y67" s="3">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="Z67" s="3">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="AA67" s="3">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="AB67" s="3">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="AC67" s="3">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AD67" s="3">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AE67" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AF67" s="3">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="AG67" s="3">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
@@ -8101,100 +8195,100 @@
         <v>99</v>
       </c>
       <c r="B68" s="3">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C68" s="3">
+        <v>58</v>
+      </c>
+      <c r="D68" s="3">
+        <v>58</v>
+      </c>
+      <c r="E68" s="3">
+        <v>51</v>
+      </c>
+      <c r="F68" s="3">
         <v>57</v>
       </c>
-      <c r="D68" s="3">
-        <v>66</v>
-      </c>
-      <c r="E68" s="3">
+      <c r="G68" s="3">
+        <v>51</v>
+      </c>
+      <c r="H68" s="3">
+        <v>63</v>
+      </c>
+      <c r="I68" s="3">
+        <v>41</v>
+      </c>
+      <c r="J68" s="3">
+        <v>56</v>
+      </c>
+      <c r="K68" s="3">
+        <v>54</v>
+      </c>
+      <c r="L68" s="3">
+        <v>57</v>
+      </c>
+      <c r="M68" s="3">
+        <v>48</v>
+      </c>
+      <c r="N68" s="3">
         <v>60</v>
       </c>
-      <c r="F68" s="3">
-        <v>59</v>
-      </c>
-      <c r="G68" s="3">
-        <v>57</v>
-      </c>
-      <c r="H68" s="3">
-        <v>62</v>
-      </c>
-      <c r="I68" s="3">
-        <v>48</v>
-      </c>
-      <c r="J68" s="3">
-        <v>53</v>
-      </c>
-      <c r="K68" s="3">
-        <v>53</v>
-      </c>
-      <c r="L68" s="3">
-        <v>50</v>
-      </c>
-      <c r="M68" s="3">
-        <v>46</v>
-      </c>
-      <c r="N68" s="3">
-        <v>49</v>
-      </c>
       <c r="O68" s="3">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="P68" s="3">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q68" s="3">
+        <v>43</v>
+      </c>
+      <c r="R68" s="3">
+        <v>41</v>
+      </c>
+      <c r="S68" s="3">
+        <v>52</v>
+      </c>
+      <c r="T68" s="3">
+        <v>38</v>
+      </c>
+      <c r="U68" s="3">
+        <v>25</v>
+      </c>
+      <c r="V68" s="3">
         <v>36</v>
       </c>
-      <c r="R68" s="3">
-        <v>37</v>
-      </c>
-      <c r="S68" s="3">
-        <v>34</v>
-      </c>
-      <c r="T68" s="3">
-        <v>37</v>
-      </c>
-      <c r="U68" s="3">
-        <v>29</v>
-      </c>
-      <c r="V68" s="3">
-        <v>32</v>
-      </c>
       <c r="W68" s="3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="X68" s="3">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Y68" s="3">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Z68" s="3">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA68" s="3">
         <v>36</v>
       </c>
       <c r="AB68" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC68" s="3">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AD68" s="3">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AE68" s="3">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="AF68" s="3">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AG68" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
@@ -8202,100 +8296,100 @@
         <v>100</v>
       </c>
       <c r="B69" s="3">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="C69" s="3">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="D69" s="3">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="E69" s="3">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="F69" s="3">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="G69" s="3">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="H69" s="3">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="I69" s="3">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="J69" s="3">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="K69" s="3">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="L69" s="3">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="M69" s="3">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="N69" s="3">
+        <v>187</v>
+      </c>
+      <c r="O69" s="3">
+        <v>168</v>
+      </c>
+      <c r="P69" s="3">
+        <v>195</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>160</v>
+      </c>
+      <c r="R69" s="3">
+        <v>143</v>
+      </c>
+      <c r="S69" s="3">
+        <v>157</v>
+      </c>
+      <c r="T69" s="3">
+        <v>138</v>
+      </c>
+      <c r="U69" s="3">
+        <v>150</v>
+      </c>
+      <c r="V69" s="3">
+        <v>156</v>
+      </c>
+      <c r="W69" s="3">
+        <v>107</v>
+      </c>
+      <c r="X69" s="3">
+        <v>173</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>154</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>117</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>94</v>
+      </c>
+      <c r="AB69" s="3">
         <v>87</v>
       </c>
-      <c r="O69" s="3">
-        <v>88</v>
-      </c>
-      <c r="P69" s="3">
+      <c r="AC69" s="3">
+        <v>79</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>70</v>
+      </c>
+      <c r="AE69" s="3">
         <v>60</v>
       </c>
-      <c r="Q69" s="3">
-        <v>65</v>
-      </c>
-      <c r="R69" s="3">
-        <v>52</v>
-      </c>
-      <c r="S69" s="3">
-        <v>69</v>
-      </c>
-      <c r="T69" s="3">
-        <v>70</v>
-      </c>
-      <c r="U69" s="3">
-        <v>75</v>
-      </c>
-      <c r="V69" s="3">
-        <v>65</v>
-      </c>
-      <c r="W69" s="3">
-        <v>66</v>
-      </c>
-      <c r="X69" s="3">
-        <v>85</v>
-      </c>
-      <c r="Y69" s="3">
-        <v>74</v>
-      </c>
-      <c r="Z69" s="3">
-        <v>71</v>
-      </c>
-      <c r="AA69" s="3">
-        <v>61</v>
-      </c>
-      <c r="AB69" s="3">
+      <c r="AF69" s="3">
         <v>44</v>
       </c>
-      <c r="AC69" s="3">
-        <v>34</v>
-      </c>
-      <c r="AD69" s="3">
-        <v>37</v>
-      </c>
-      <c r="AE69" s="3">
-        <v>20</v>
-      </c>
-      <c r="AF69" s="3">
-        <v>17</v>
-      </c>
       <c r="AG69" s="3">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
@@ -8303,100 +8397,100 @@
         <v>101</v>
       </c>
       <c r="B70" s="3">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="C70" s="3">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="D70" s="3">
-        <v>58</v>
+        <v>298</v>
       </c>
       <c r="E70" s="3">
-        <v>51</v>
+        <v>283</v>
       </c>
       <c r="F70" s="3">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="G70" s="3">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="H70" s="3">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="I70" s="3">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="J70" s="3">
+        <v>247</v>
+      </c>
+      <c r="K70" s="3">
+        <v>248</v>
+      </c>
+      <c r="L70" s="3">
+        <v>227</v>
+      </c>
+      <c r="M70" s="3">
+        <v>209</v>
+      </c>
+      <c r="N70" s="3">
+        <v>181</v>
+      </c>
+      <c r="O70" s="3">
+        <v>172</v>
+      </c>
+      <c r="P70" s="3">
+        <v>151</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>149</v>
+      </c>
+      <c r="R70" s="3">
+        <v>167</v>
+      </c>
+      <c r="S70" s="3">
+        <v>144</v>
+      </c>
+      <c r="T70" s="3">
+        <v>144</v>
+      </c>
+      <c r="U70" s="3">
+        <v>167</v>
+      </c>
+      <c r="V70" s="3">
+        <v>130</v>
+      </c>
+      <c r="W70" s="3">
+        <v>123</v>
+      </c>
+      <c r="X70" s="3">
+        <v>144</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>135</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>115</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>102</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>84</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>82</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>61</v>
+      </c>
+      <c r="AE70" s="3">
         <v>56</v>
       </c>
-      <c r="K70" s="3">
-        <v>54</v>
-      </c>
-      <c r="L70" s="3">
-        <v>57</v>
-      </c>
-      <c r="M70" s="3">
-        <v>48</v>
-      </c>
-      <c r="N70" s="3">
-        <v>60</v>
-      </c>
-      <c r="O70" s="3">
+      <c r="AF70" s="3">
         <v>44</v>
       </c>
-      <c r="P70" s="3">
-        <v>43</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>43</v>
-      </c>
-      <c r="R70" s="3">
-        <v>41</v>
-      </c>
-      <c r="S70" s="3">
-        <v>52</v>
-      </c>
-      <c r="T70" s="3">
-        <v>38</v>
-      </c>
-      <c r="U70" s="3">
-        <v>25</v>
-      </c>
-      <c r="V70" s="3">
-        <v>36</v>
-      </c>
-      <c r="W70" s="3">
-        <v>41</v>
-      </c>
-      <c r="X70" s="3">
-        <v>54</v>
-      </c>
-      <c r="Y70" s="3">
-        <v>41</v>
-      </c>
-      <c r="Z70" s="3">
-        <v>30</v>
-      </c>
-      <c r="AA70" s="3">
-        <v>36</v>
-      </c>
-      <c r="AB70" s="3">
-        <v>31</v>
-      </c>
-      <c r="AC70" s="3">
-        <v>14</v>
-      </c>
-      <c r="AD70" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE70" s="3">
-        <v>8</v>
-      </c>
-      <c r="AF70" s="3">
-        <v>5</v>
-      </c>
       <c r="AG70" s="3">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
@@ -8404,85 +8498,85 @@
         <v>102</v>
       </c>
       <c r="B71" s="3">
+        <v>281</v>
+      </c>
+      <c r="C71" s="3">
+        <v>250</v>
+      </c>
+      <c r="D71" s="3">
         <v>217</v>
       </c>
-      <c r="C71" s="3">
-        <v>245</v>
-      </c>
-      <c r="D71" s="3">
-        <v>230</v>
-      </c>
       <c r="E71" s="3">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="F71" s="3">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="G71" s="3">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="H71" s="3">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="I71" s="3">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="J71" s="3">
+        <v>160</v>
+      </c>
+      <c r="K71" s="3">
+        <v>181</v>
+      </c>
+      <c r="L71" s="3">
+        <v>143</v>
+      </c>
+      <c r="M71" s="3">
         <v>176</v>
       </c>
-      <c r="K71" s="3">
-        <v>196</v>
-      </c>
-      <c r="L71" s="3">
-        <v>200</v>
-      </c>
-      <c r="M71" s="3">
-        <v>178</v>
-      </c>
       <c r="N71" s="3">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="O71" s="3">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="P71" s="3">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="Q71" s="3">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="R71" s="3">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="S71" s="3">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="T71" s="3">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="U71" s="3">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="V71" s="3">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="W71" s="3">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="X71" s="3">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="Y71" s="3">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="Z71" s="3">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="AA71" s="3">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AB71" s="3">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="AC71" s="3">
         <v>79</v>
@@ -8491,13 +8585,13 @@
         <v>70</v>
       </c>
       <c r="AE71" s="3">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AF71" s="3">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AG71" s="3">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
@@ -8505,100 +8599,100 @@
         <v>103</v>
       </c>
       <c r="B72" s="3">
-        <v>346</v>
+        <v>139</v>
       </c>
       <c r="C72" s="3">
-        <v>315</v>
+        <v>154</v>
       </c>
       <c r="D72" s="3">
-        <v>298</v>
+        <v>113</v>
       </c>
       <c r="E72" s="3">
-        <v>283</v>
+        <v>124</v>
       </c>
       <c r="F72" s="3">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="G72" s="3">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="H72" s="3">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="I72" s="3">
-        <v>206</v>
+        <v>85</v>
       </c>
       <c r="J72" s="3">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="K72" s="3">
-        <v>248</v>
+        <v>101</v>
       </c>
       <c r="L72" s="3">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="M72" s="3">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="N72" s="3">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="O72" s="3">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="P72" s="3">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="Q72" s="3">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="R72" s="3">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="S72" s="3">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="T72" s="3">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="U72" s="3">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="V72" s="3">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="W72" s="3">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="X72" s="3">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="Y72" s="3">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="Z72" s="3">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="AA72" s="3">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="AB72" s="3">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="AC72" s="3">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="AD72" s="3">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="AE72" s="3">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="AF72" s="3">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AG72" s="3">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
@@ -8606,97 +8700,97 @@
         <v>104</v>
       </c>
       <c r="B73" s="3">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="C73" s="3">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D73" s="3">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E73" s="3">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="F73" s="3">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="G73" s="3">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="H73" s="3">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="I73" s="3">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="J73" s="3">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="K73" s="3">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="L73" s="3">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M73" s="3">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="N73" s="3">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="O73" s="3">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="P73" s="3">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Q73" s="3">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="R73" s="3">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="S73" s="3">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="T73" s="3">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="U73" s="3">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="V73" s="3">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="W73" s="3">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="X73" s="3">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="Y73" s="3">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="Z73" s="3">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AA73" s="3">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="AB73" s="3">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AC73" s="3">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AD73" s="3">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AE73" s="3">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AF73" s="3">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="AG73" s="3">
         <v>38</v>
@@ -8707,97 +8801,97 @@
         <v>105</v>
       </c>
       <c r="B74" s="3">
+        <v>210</v>
+      </c>
+      <c r="C74" s="3">
+        <v>229</v>
+      </c>
+      <c r="D74" s="3">
+        <v>196</v>
+      </c>
+      <c r="E74" s="3">
+        <v>214</v>
+      </c>
+      <c r="F74" s="3">
+        <v>169</v>
+      </c>
+      <c r="G74" s="3">
+        <v>143</v>
+      </c>
+      <c r="H74" s="3">
+        <v>144</v>
+      </c>
+      <c r="I74" s="3">
         <v>139</v>
       </c>
-      <c r="C74" s="3">
-        <v>154</v>
-      </c>
-      <c r="D74" s="3">
-        <v>113</v>
-      </c>
-      <c r="E74" s="3">
-        <v>124</v>
-      </c>
-      <c r="F74" s="3">
-        <v>127</v>
-      </c>
-      <c r="G74" s="3">
+      <c r="J74" s="3">
+        <v>105</v>
+      </c>
+      <c r="K74" s="3">
+        <v>92</v>
+      </c>
+      <c r="L74" s="3">
+        <v>88</v>
+      </c>
+      <c r="M74" s="3">
+        <v>107</v>
+      </c>
+      <c r="N74" s="3">
+        <v>100</v>
+      </c>
+      <c r="O74" s="3">
+        <v>110</v>
+      </c>
+      <c r="P74" s="3">
         <v>108</v>
       </c>
-      <c r="H74" s="3">
-        <v>99</v>
-      </c>
-      <c r="I74" s="3">
+      <c r="Q74" s="3">
+        <v>70</v>
+      </c>
+      <c r="R74" s="3">
+        <v>81</v>
+      </c>
+      <c r="S74" s="3">
+        <v>87</v>
+      </c>
+      <c r="T74" s="3">
+        <v>81</v>
+      </c>
+      <c r="U74" s="3">
         <v>85</v>
       </c>
-      <c r="J74" s="3">
-        <v>75</v>
-      </c>
-      <c r="K74" s="3">
-        <v>101</v>
-      </c>
-      <c r="L74" s="3">
-        <v>79</v>
-      </c>
-      <c r="M74" s="3">
-        <v>86</v>
-      </c>
-      <c r="N74" s="3">
-        <v>70</v>
-      </c>
-      <c r="O74" s="3">
-        <v>67</v>
-      </c>
-      <c r="P74" s="3">
-        <v>70</v>
-      </c>
-      <c r="Q74" s="3">
+      <c r="V74" s="3">
+        <v>74</v>
+      </c>
+      <c r="W74" s="3">
+        <v>64</v>
+      </c>
+      <c r="X74" s="3">
+        <v>94</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>83</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>90</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>76</v>
+      </c>
+      <c r="AB74" s="3">
         <v>66</v>
       </c>
-      <c r="R74" s="3">
-        <v>74</v>
-      </c>
-      <c r="S74" s="3">
-        <v>55</v>
-      </c>
-      <c r="T74" s="3">
-        <v>64</v>
-      </c>
-      <c r="U74" s="3">
-        <v>66</v>
-      </c>
-      <c r="V74" s="3">
-        <v>66</v>
-      </c>
-      <c r="W74" s="3">
-        <v>55</v>
-      </c>
-      <c r="X74" s="3">
-        <v>55</v>
-      </c>
-      <c r="Y74" s="3">
-        <v>56</v>
-      </c>
-      <c r="Z74" s="3">
-        <v>59</v>
-      </c>
-      <c r="AA74" s="3">
-        <v>39</v>
-      </c>
-      <c r="AB74" s="3">
-        <v>45</v>
-      </c>
       <c r="AC74" s="3">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AD74" s="3">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="AE74" s="3">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AF74" s="3">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AG74" s="3">
         <v>16</v>
@@ -8808,100 +8902,100 @@
         <v>106</v>
       </c>
       <c r="B75" s="3">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="C75" s="3">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="D75" s="3">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="E75" s="3">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="F75" s="3">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="G75" s="3">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="H75" s="3">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I75" s="3">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="J75" s="3">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="K75" s="3">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="L75" s="3">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="M75" s="3">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="N75" s="3">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="O75" s="3">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="P75" s="3">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="Q75" s="3">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="R75" s="3">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="S75" s="3">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="T75" s="3">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="U75" s="3">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="V75" s="3">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="W75" s="3">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="X75" s="3">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="Y75" s="3">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="Z75" s="3">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="AA75" s="3">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="AB75" s="3">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="AC75" s="3">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AD75" s="3">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AE75" s="3">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="AF75" s="3">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AG75" s="3">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
@@ -8909,100 +9003,100 @@
         <v>107</v>
       </c>
       <c r="B76" s="3">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C76" s="3">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="D76" s="3">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="E76" s="3">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="F76" s="3">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="G76" s="3">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="H76" s="3">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="I76" s="3">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="J76" s="3">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K76" s="3">
+        <v>120</v>
+      </c>
+      <c r="L76" s="3">
+        <v>85</v>
+      </c>
+      <c r="M76" s="3">
+        <v>102</v>
+      </c>
+      <c r="N76" s="3">
+        <v>108</v>
+      </c>
+      <c r="O76" s="3">
+        <v>94</v>
+      </c>
+      <c r="P76" s="3">
+        <v>84</v>
+      </c>
+      <c r="Q76" s="3">
         <v>92</v>
       </c>
-      <c r="L76" s="3">
+      <c r="R76" s="3">
+        <v>87</v>
+      </c>
+      <c r="S76" s="3">
+        <v>92</v>
+      </c>
+      <c r="T76" s="3">
+        <v>82</v>
+      </c>
+      <c r="U76" s="3">
         <v>88</v>
       </c>
-      <c r="M76" s="3">
-        <v>107</v>
-      </c>
-      <c r="N76" s="3">
-        <v>100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>110</v>
-      </c>
-      <c r="P76" s="3">
-        <v>108</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>70</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="V76" s="3">
+        <v>60</v>
+      </c>
+      <c r="W76" s="3">
+        <v>73</v>
+      </c>
+      <c r="X76" s="3">
+        <v>82</v>
+      </c>
+      <c r="Y76" s="3">
         <v>81</v>
       </c>
-      <c r="S76" s="3">
-        <v>87</v>
-      </c>
-      <c r="T76" s="3">
-        <v>81</v>
-      </c>
-      <c r="U76" s="3">
-        <v>85</v>
-      </c>
-      <c r="V76" s="3">
-        <v>74</v>
-      </c>
-      <c r="W76" s="3">
-        <v>64</v>
-      </c>
-      <c r="X76" s="3">
-        <v>94</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>83</v>
-      </c>
       <c r="Z76" s="3">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AA76" s="3">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AB76" s="3">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="AC76" s="3">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="AD76" s="3">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AE76" s="3">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AF76" s="3">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AG76" s="3">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -9010,100 +9104,100 @@
         <v>108</v>
       </c>
       <c r="B77" s="3">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="C77" s="3">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="D77" s="3">
+        <v>138</v>
+      </c>
+      <c r="E77" s="3">
+        <v>133</v>
+      </c>
+      <c r="F77" s="3">
+        <v>139</v>
+      </c>
+      <c r="G77" s="3">
+        <v>109</v>
+      </c>
+      <c r="H77" s="3">
+        <v>100</v>
+      </c>
+      <c r="I77" s="3">
+        <v>111</v>
+      </c>
+      <c r="J77" s="3">
+        <v>100</v>
+      </c>
+      <c r="K77" s="3">
+        <v>105</v>
+      </c>
+      <c r="L77" s="3">
+        <v>83</v>
+      </c>
+      <c r="M77" s="3">
+        <v>110</v>
+      </c>
+      <c r="N77" s="3">
+        <v>72</v>
+      </c>
+      <c r="O77" s="3">
+        <v>71</v>
+      </c>
+      <c r="P77" s="3">
+        <v>61</v>
+      </c>
+      <c r="Q77" s="3">
         <v>69</v>
       </c>
-      <c r="E77" s="3">
-        <v>74</v>
-      </c>
-      <c r="F77" s="3">
-        <v>76</v>
-      </c>
-      <c r="G77" s="3">
-        <v>84</v>
-      </c>
-      <c r="H77" s="3">
-        <v>87</v>
-      </c>
-      <c r="I77" s="3">
-        <v>90</v>
-      </c>
-      <c r="J77" s="3">
-        <v>73</v>
-      </c>
-      <c r="K77" s="3">
-        <v>108</v>
-      </c>
-      <c r="L77" s="3">
-        <v>66</v>
-      </c>
-      <c r="M77" s="3">
-        <v>66</v>
-      </c>
-      <c r="N77" s="3">
-        <v>58</v>
-      </c>
-      <c r="O77" s="3">
+      <c r="R77" s="3">
         <v>56</v>
       </c>
-      <c r="P77" s="3">
-        <v>48</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>44</v>
-      </c>
-      <c r="R77" s="3">
-        <v>49</v>
-      </c>
       <c r="S77" s="3">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="T77" s="3">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="U77" s="3">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="V77" s="3">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="W77" s="3">
         <v>35</v>
       </c>
       <c r="X77" s="3">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Y77" s="3">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="Z77" s="3">
+        <v>41</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>49</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>31</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>35</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>26</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>38</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>31</v>
+      </c>
+      <c r="AG77" s="3">
         <v>34</v>
-      </c>
-      <c r="AA77" s="3">
-        <v>35</v>
-      </c>
-      <c r="AB77" s="3">
-        <v>30</v>
-      </c>
-      <c r="AC77" s="3">
-        <v>19</v>
-      </c>
-      <c r="AD77" s="3">
-        <v>24</v>
-      </c>
-      <c r="AE77" s="3">
-        <v>14</v>
-      </c>
-      <c r="AF77" s="3">
-        <v>12</v>
-      </c>
-      <c r="AG77" s="3">
-        <v>13</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
@@ -9111,100 +9205,100 @@
         <v>109</v>
       </c>
       <c r="B78" s="3">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C78" s="3">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="D78" s="3">
+        <v>188</v>
+      </c>
+      <c r="E78" s="3">
+        <v>185</v>
+      </c>
+      <c r="F78" s="3">
+        <v>193</v>
+      </c>
+      <c r="G78" s="3">
+        <v>140</v>
+      </c>
+      <c r="H78" s="3">
+        <v>150</v>
+      </c>
+      <c r="I78" s="3">
+        <v>120</v>
+      </c>
+      <c r="J78" s="3">
+        <v>125</v>
+      </c>
+      <c r="K78" s="3">
+        <v>113</v>
+      </c>
+      <c r="L78" s="3">
         <v>110</v>
       </c>
-      <c r="E78" s="3">
-        <v>105</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="M78" s="3">
+        <v>103</v>
+      </c>
+      <c r="N78" s="3">
         <v>90</v>
       </c>
-      <c r="G78" s="3">
-        <v>87</v>
-      </c>
-      <c r="H78" s="3">
-        <v>76</v>
-      </c>
-      <c r="I78" s="3">
-        <v>100</v>
-      </c>
-      <c r="J78" s="3">
-        <v>98</v>
-      </c>
-      <c r="K78" s="3">
-        <v>120</v>
-      </c>
-      <c r="L78" s="3">
-        <v>85</v>
-      </c>
-      <c r="M78" s="3">
-        <v>102</v>
-      </c>
-      <c r="N78" s="3">
-        <v>108</v>
-      </c>
       <c r="O78" s="3">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="P78" s="3">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q78" s="3">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="R78" s="3">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="S78" s="3">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="T78" s="3">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="U78" s="3">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V78" s="3">
         <v>60</v>
       </c>
       <c r="W78" s="3">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="X78" s="3">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="Y78" s="3">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="Z78" s="3">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AA78" s="3">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AB78" s="3">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AC78" s="3">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AD78" s="3">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AE78" s="3">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="AF78" s="3">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AG78" s="3">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
@@ -9212,100 +9306,100 @@
         <v>110</v>
       </c>
       <c r="B79" s="3">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="C79" s="3">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="D79" s="3">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="E79" s="3">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="F79" s="3">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="G79" s="3">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="H79" s="3">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I79" s="3">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="J79" s="3">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="K79" s="3">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="L79" s="3">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="M79" s="3">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="N79" s="3">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="O79" s="3">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="P79" s="3">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="Q79" s="3">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="R79" s="3">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="S79" s="3">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="T79" s="3">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="U79" s="3">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="V79" s="3">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="W79" s="3">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="X79" s="3">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="Y79" s="3">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="Z79" s="3">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AA79" s="3">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="AB79" s="3">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="AC79" s="3">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="AD79" s="3">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="AE79" s="3">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="AF79" s="3">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="AG79" s="3">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
@@ -9313,100 +9407,100 @@
         <v>111</v>
       </c>
       <c r="B80" s="3">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="C80" s="3">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="D80" s="3">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="E80" s="3">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="F80" s="3">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="G80" s="3">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H80" s="3">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="I80" s="3">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J80" s="3">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K80" s="3">
+        <v>105</v>
+      </c>
+      <c r="L80" s="3">
+        <v>105</v>
+      </c>
+      <c r="M80" s="3">
+        <v>93</v>
+      </c>
+      <c r="N80" s="3">
+        <v>80</v>
+      </c>
+      <c r="O80" s="3">
         <v>113</v>
       </c>
-      <c r="L80" s="3">
-        <v>110</v>
-      </c>
-      <c r="M80" s="3">
-        <v>103</v>
-      </c>
-      <c r="N80" s="3">
+      <c r="P80" s="3">
+        <v>94</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>106</v>
+      </c>
+      <c r="R80" s="3">
+        <v>75</v>
+      </c>
+      <c r="S80" s="3">
         <v>90</v>
       </c>
-      <c r="O80" s="3">
+      <c r="T80" s="3">
+        <v>78</v>
+      </c>
+      <c r="U80" s="3">
+        <v>85</v>
+      </c>
+      <c r="V80" s="3">
+        <v>69</v>
+      </c>
+      <c r="W80" s="3">
+        <v>76</v>
+      </c>
+      <c r="X80" s="3">
         <v>66</v>
       </c>
-      <c r="P80" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>49</v>
-      </c>
-      <c r="R80" s="3">
-        <v>56</v>
-      </c>
-      <c r="S80" s="3">
-        <v>72</v>
-      </c>
-      <c r="T80" s="3">
-        <v>54</v>
-      </c>
-      <c r="U80" s="3">
-        <v>60</v>
-      </c>
-      <c r="V80" s="3">
-        <v>60</v>
-      </c>
-      <c r="W80" s="3">
-        <v>45</v>
-      </c>
-      <c r="X80" s="3">
-        <v>72</v>
-      </c>
       <c r="Y80" s="3">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Z80" s="3">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="AA80" s="3">
         <v>51</v>
       </c>
       <c r="AB80" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AC80" s="3">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AD80" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE80" s="3">
+        <v>33</v>
+      </c>
+      <c r="AF80" s="3">
+        <v>26</v>
+      </c>
+      <c r="AG80" s="3">
         <v>20</v>
-      </c>
-      <c r="AF80" s="3">
-        <v>33</v>
-      </c>
-      <c r="AG80" s="3">
-        <v>14</v>
       </c>
     </row>
     <row r="81" ht="12.75" customHeight="1">
@@ -9414,100 +9508,100 @@
         <v>112</v>
       </c>
       <c r="B81" s="3">
+        <v>108</v>
+      </c>
+      <c r="C81" s="3">
+        <v>67</v>
+      </c>
+      <c r="D81" s="3">
+        <v>77</v>
+      </c>
+      <c r="E81" s="3">
+        <v>92</v>
+      </c>
+      <c r="F81" s="3">
+        <v>69</v>
+      </c>
+      <c r="G81" s="3">
+        <v>67</v>
+      </c>
+      <c r="H81" s="3">
+        <v>63</v>
+      </c>
+      <c r="I81" s="3">
+        <v>65</v>
+      </c>
+      <c r="J81" s="3">
+        <v>76</v>
+      </c>
+      <c r="K81" s="3">
+        <v>63</v>
+      </c>
+      <c r="L81" s="3">
+        <v>58</v>
+      </c>
+      <c r="M81" s="3">
+        <v>62</v>
+      </c>
+      <c r="N81" s="3">
+        <v>49</v>
+      </c>
+      <c r="O81" s="3">
+        <v>57</v>
+      </c>
+      <c r="P81" s="3">
+        <v>68</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>67</v>
+      </c>
+      <c r="R81" s="3">
+        <v>51</v>
+      </c>
+      <c r="S81" s="3">
+        <v>60</v>
+      </c>
+      <c r="T81" s="3">
+        <v>55</v>
+      </c>
+      <c r="U81" s="3">
+        <v>47</v>
+      </c>
+      <c r="V81" s="3">
+        <v>47</v>
+      </c>
+      <c r="W81" s="3">
+        <v>48</v>
+      </c>
+      <c r="X81" s="3">
+        <v>49</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>42</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>34</v>
+      </c>
+      <c r="AA81" s="3">
         <v>22</v>
       </c>
-      <c r="C81" s="3">
-        <v>22</v>
-      </c>
-      <c r="D81" s="3">
-        <v>28</v>
-      </c>
-      <c r="E81" s="3">
-        <v>27</v>
-      </c>
-      <c r="F81" s="3">
-        <v>21</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="AB81" s="3">
         <v>20</v>
       </c>
-      <c r="H81" s="3">
-        <v>22</v>
-      </c>
-      <c r="I81" s="3">
-        <v>20</v>
-      </c>
-      <c r="J81" s="3">
-        <v>22</v>
-      </c>
-      <c r="K81" s="3">
-        <v>14</v>
-      </c>
-      <c r="L81" s="3">
-        <v>8</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="AC81" s="3">
         <v>10</v>
       </c>
-      <c r="N81" s="3">
-        <v>12</v>
-      </c>
-      <c r="O81" s="3">
-        <v>11</v>
-      </c>
-      <c r="P81" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>15</v>
-      </c>
-      <c r="R81" s="3">
-        <v>13</v>
-      </c>
-      <c r="S81" s="3">
-        <v>10</v>
-      </c>
-      <c r="T81" s="3">
-        <v>2</v>
-      </c>
-      <c r="U81" s="3">
-        <v>8</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="AD81" s="3">
         <v>9</v>
-      </c>
-      <c r="W81" s="3">
-        <v>9</v>
-      </c>
-      <c r="X81" s="3">
-        <v>10</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>11</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>15</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>13</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>7</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>5</v>
-      </c>
-      <c r="AD81" s="3">
-        <v>6</v>
       </c>
       <c r="AE81" s="3">
         <v>7</v>
       </c>
       <c r="AF81" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG81" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
@@ -9515,100 +9609,100 @@
         <v>113</v>
       </c>
       <c r="B82" s="3">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C82" s="3">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="D82" s="3">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="E82" s="3">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="F82" s="3">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G82" s="3">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="H82" s="3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I82" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J82" s="3">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="K82" s="3">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="L82" s="3">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="M82" s="3">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N82" s="3">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O82" s="3">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="P82" s="3">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="Q82" s="3">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="R82" s="3">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S82" s="3">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="T82" s="3">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="U82" s="3">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="V82" s="3">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="W82" s="3">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="X82" s="3">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y82" s="3">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Z82" s="3">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AA82" s="3">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="AB82" s="3">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AC82" s="3">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="AD82" s="3">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AE82" s="3">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="AF82" s="3">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AG82" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
@@ -9616,100 +9710,100 @@
         <v>114</v>
       </c>
       <c r="B83" s="3">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="C83" s="3">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D83" s="3">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E83" s="3">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="F83" s="3">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="G83" s="3">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="H83" s="3">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="I83" s="3">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="J83" s="3">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="K83" s="3">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="L83" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="N83" s="3">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="O83" s="3">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="P83" s="3">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="R83" s="3">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="S83" s="3">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="T83" s="3">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="U83" s="3">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="V83" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="X83" s="3">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="Y83" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AB83" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC83" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD83" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AE83" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF83" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG83" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
@@ -9717,100 +9811,100 @@
         <v>115</v>
       </c>
       <c r="B84" s="3">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="C84" s="3">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="D84" s="3">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="E84" s="3">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="F84" s="3">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="G84" s="3">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H84" s="3">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I84" s="3">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="J84" s="3">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="K84" s="3">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="L84" s="3">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="M84" s="3">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="N84" s="3">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="O84" s="3">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="P84" s="3">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="Q84" s="3">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="R84" s="3">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="S84" s="3">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="T84" s="3">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="U84" s="3">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="V84" s="3">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="W84" s="3">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="X84" s="3">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="Y84" s="3">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Z84" s="3">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="AA84" s="3">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="AB84" s="3">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AC84" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AD84" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AE84" s="3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AF84" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AG84" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
@@ -9818,100 +9912,100 @@
         <v>116</v>
       </c>
       <c r="B85" s="3">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C85" s="3">
+        <v>44</v>
+      </c>
+      <c r="D85" s="3">
+        <v>39</v>
+      </c>
+      <c r="E85" s="3">
+        <v>45</v>
+      </c>
+      <c r="F85" s="3">
+        <v>31</v>
+      </c>
+      <c r="G85" s="3">
+        <v>25</v>
+      </c>
+      <c r="H85" s="3">
+        <v>28</v>
+      </c>
+      <c r="I85" s="3">
+        <v>24</v>
+      </c>
+      <c r="J85" s="3">
+        <v>23</v>
+      </c>
+      <c r="K85" s="3">
+        <v>14</v>
+      </c>
+      <c r="L85" s="3">
+        <v>9</v>
+      </c>
+      <c r="M85" s="3">
+        <v>15</v>
+      </c>
+      <c r="N85" s="3">
+        <v>13</v>
+      </c>
+      <c r="O85" s="3">
+        <v>21</v>
+      </c>
+      <c r="P85" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>13</v>
+      </c>
+      <c r="R85" s="3">
+        <v>15</v>
+      </c>
+      <c r="S85" s="3">
+        <v>20</v>
+      </c>
+      <c r="T85" s="3">
         <v>11</v>
       </c>
-      <c r="D85" s="3">
+      <c r="U85" s="3">
+        <v>16</v>
+      </c>
+      <c r="V85" s="3">
+        <v>9</v>
+      </c>
+      <c r="W85" s="3">
+        <v>18</v>
+      </c>
+      <c r="X85" s="3">
         <v>11</v>
       </c>
-      <c r="E85" s="3">
+      <c r="Y85" s="3">
+        <v>16</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>14</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>14</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>16</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>9</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF85" s="3">
         <v>5</v>
       </c>
-      <c r="F85" s="3">
-        <v>8</v>
-      </c>
-      <c r="G85" s="3">
-        <v>5</v>
-      </c>
-      <c r="H85" s="3">
+      <c r="AG85" s="3">
         <v>6</v>
-      </c>
-      <c r="I85" s="3">
-        <v>8</v>
-      </c>
-      <c r="J85" s="3">
-        <v>3</v>
-      </c>
-      <c r="K85" s="3">
-        <v>1</v>
-      </c>
-      <c r="L85" s="3">
-        <v>0</v>
-      </c>
-      <c r="M85" s="3">
-        <v>2</v>
-      </c>
-      <c r="N85" s="3">
-        <v>2</v>
-      </c>
-      <c r="O85" s="3">
-        <v>2</v>
-      </c>
-      <c r="P85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>2</v>
-      </c>
-      <c r="R85" s="3">
-        <v>1</v>
-      </c>
-      <c r="S85" s="3">
-        <v>4</v>
-      </c>
-      <c r="T85" s="3">
-        <v>4</v>
-      </c>
-      <c r="U85" s="3">
-        <v>2</v>
-      </c>
-      <c r="V85" s="3">
-        <v>0</v>
-      </c>
-      <c r="W85" s="3">
-        <v>0</v>
-      </c>
-      <c r="X85" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG85" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
@@ -9919,76 +10013,76 @@
         <v>117</v>
       </c>
       <c r="B86" s="3">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C86" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D86" s="3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E86" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F86" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G86" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H86" s="3">
+        <v>17</v>
+      </c>
+      <c r="I86" s="3">
+        <v>12</v>
+      </c>
+      <c r="J86" s="3">
+        <v>13</v>
+      </c>
+      <c r="K86" s="3">
+        <v>12</v>
+      </c>
+      <c r="L86" s="3">
+        <v>11</v>
+      </c>
+      <c r="M86" s="3">
+        <v>20</v>
+      </c>
+      <c r="N86" s="3">
+        <v>11</v>
+      </c>
+      <c r="O86" s="3">
+        <v>9</v>
+      </c>
+      <c r="P86" s="3">
         <v>8</v>
       </c>
-      <c r="I86" s="3">
-        <v>17</v>
-      </c>
-      <c r="J86" s="3">
-        <v>12</v>
-      </c>
-      <c r="K86" s="3">
-        <v>3</v>
-      </c>
-      <c r="L86" s="3">
-        <v>5</v>
-      </c>
-      <c r="M86" s="3">
+      <c r="Q86" s="3">
+        <v>10</v>
+      </c>
+      <c r="R86" s="3">
+        <v>13</v>
+      </c>
+      <c r="S86" s="3">
+        <v>11</v>
+      </c>
+      <c r="T86" s="3">
+        <v>4</v>
+      </c>
+      <c r="U86" s="3">
+        <v>6</v>
+      </c>
+      <c r="V86" s="3">
+        <v>9</v>
+      </c>
+      <c r="W86" s="3">
         <v>7</v>
       </c>
-      <c r="N86" s="3">
-        <v>5</v>
-      </c>
-      <c r="O86" s="3">
-        <v>11</v>
-      </c>
-      <c r="P86" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>16</v>
-      </c>
-      <c r="R86" s="3">
-        <v>19</v>
-      </c>
-      <c r="S86" s="3">
-        <v>14</v>
-      </c>
-      <c r="T86" s="3">
+      <c r="X86" s="3">
         <v>9</v>
       </c>
-      <c r="U86" s="3">
-        <v>10</v>
-      </c>
-      <c r="V86" s="3">
-        <v>8</v>
-      </c>
-      <c r="W86" s="3">
-        <v>9</v>
-      </c>
-      <c r="X86" s="3">
+      <c r="Y86" s="3">
         <v>13</v>
-      </c>
-      <c r="Y86" s="3">
-        <v>11</v>
       </c>
       <c r="Z86" s="3">
         <v>8</v>
@@ -9997,223 +10091,21 @@
         <v>8</v>
       </c>
       <c r="AB86" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC86" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD86" s="3">
         <v>5</v>
       </c>
       <c r="AE86" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF86" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG86" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B87" s="3">
-        <v>49</v>
-      </c>
-      <c r="C87" s="3">
-        <v>44</v>
-      </c>
-      <c r="D87" s="3">
-        <v>39</v>
-      </c>
-      <c r="E87" s="3">
-        <v>45</v>
-      </c>
-      <c r="F87" s="3">
-        <v>31</v>
-      </c>
-      <c r="G87" s="3">
-        <v>25</v>
-      </c>
-      <c r="H87" s="3">
-        <v>28</v>
-      </c>
-      <c r="I87" s="3">
-        <v>24</v>
-      </c>
-      <c r="J87" s="3">
-        <v>23</v>
-      </c>
-      <c r="K87" s="3">
-        <v>14</v>
-      </c>
-      <c r="L87" s="3">
-        <v>9</v>
-      </c>
-      <c r="M87" s="3">
-        <v>15</v>
-      </c>
-      <c r="N87" s="3">
-        <v>13</v>
-      </c>
-      <c r="O87" s="3">
-        <v>21</v>
-      </c>
-      <c r="P87" s="3">
-        <v>20</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>13</v>
-      </c>
-      <c r="R87" s="3">
-        <v>15</v>
-      </c>
-      <c r="S87" s="3">
-        <v>20</v>
-      </c>
-      <c r="T87" s="3">
-        <v>11</v>
-      </c>
-      <c r="U87" s="3">
-        <v>16</v>
-      </c>
-      <c r="V87" s="3">
-        <v>9</v>
-      </c>
-      <c r="W87" s="3">
-        <v>18</v>
-      </c>
-      <c r="X87" s="3">
-        <v>11</v>
-      </c>
-      <c r="Y87" s="3">
-        <v>16</v>
-      </c>
-      <c r="Z87" s="3">
-        <v>14</v>
-      </c>
-      <c r="AA87" s="3">
-        <v>14</v>
-      </c>
-      <c r="AB87" s="3">
-        <v>16</v>
-      </c>
-      <c r="AC87" s="3">
-        <v>9</v>
-      </c>
-      <c r="AD87" s="3">
-        <v>9</v>
-      </c>
-      <c r="AE87" s="3">
-        <v>3</v>
-      </c>
-      <c r="AF87" s="3">
-        <v>5</v>
-      </c>
-      <c r="AG87" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B88" s="3">
-        <v>20</v>
-      </c>
-      <c r="C88" s="3">
-        <v>21</v>
-      </c>
-      <c r="D88" s="3">
-        <v>25</v>
-      </c>
-      <c r="E88" s="3">
-        <v>20</v>
-      </c>
-      <c r="F88" s="3">
-        <v>14</v>
-      </c>
-      <c r="G88" s="3">
-        <v>17</v>
-      </c>
-      <c r="H88" s="3">
-        <v>17</v>
-      </c>
-      <c r="I88" s="3">
-        <v>12</v>
-      </c>
-      <c r="J88" s="3">
-        <v>13</v>
-      </c>
-      <c r="K88" s="3">
-        <v>12</v>
-      </c>
-      <c r="L88" s="3">
-        <v>11</v>
-      </c>
-      <c r="M88" s="3">
-        <v>20</v>
-      </c>
-      <c r="N88" s="3">
-        <v>11</v>
-      </c>
-      <c r="O88" s="3">
-        <v>9</v>
-      </c>
-      <c r="P88" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q88" s="3">
-        <v>10</v>
-      </c>
-      <c r="R88" s="3">
-        <v>13</v>
-      </c>
-      <c r="S88" s="3">
-        <v>11</v>
-      </c>
-      <c r="T88" s="3">
-        <v>4</v>
-      </c>
-      <c r="U88" s="3">
-        <v>6</v>
-      </c>
-      <c r="V88" s="3">
-        <v>9</v>
-      </c>
-      <c r="W88" s="3">
-        <v>7</v>
-      </c>
-      <c r="X88" s="3">
-        <v>9</v>
-      </c>
-      <c r="Y88" s="3">
-        <v>13</v>
-      </c>
-      <c r="Z88" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA88" s="3">
-        <v>8</v>
-      </c>
-      <c r="AB88" s="3">
-        <v>8</v>
-      </c>
-      <c r="AC88" s="3">
-        <v>5</v>
-      </c>
-      <c r="AD88" s="3">
-        <v>5</v>
-      </c>
-      <c r="AE88" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF88" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG88" s="3">
         <v>6</v>
       </c>
     </row>
